--- a/db/DB性能测试结果.xlsx
+++ b/db/DB性能测试结果.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="21588"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="单连接" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,13 +15,168 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>truncateTables 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>insertOrder 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>insertCustom 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>insertProduct 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>insertWarehouse 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrders conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrders executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrders ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrders 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrders 件数</t>
+  </si>
+  <si>
+    <t>selectCustoms conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectCustoms executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectCustoms ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectCustoms 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectCustoms 件数</t>
+  </si>
+  <si>
+    <t>selectProducts conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectProducts executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectProducts ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectProducts 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectProducts 件数</t>
+  </si>
+  <si>
+    <t>selectWarehouses conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectWarehouses executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectWarehouses ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectWarehouses 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectWarehouses 件数</t>
+  </si>
+  <si>
+    <t>selectOrderJoinCustom conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinCustom executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinCustom ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinCustom 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinCustom 件数</t>
+  </si>
+  <si>
+    <t>selectOrderJoinProduct conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinProduct executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinProduct ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinProduct 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinProduct 件数</t>
+  </si>
+  <si>
+    <t>selectOrderJoinWarehouse conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinWarehouse executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinWarehouse ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinWarehouse 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderJoinWarehouse 件数</t>
+  </si>
+  <si>
+    <t>selectOrderWithOrderBy conn 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderWithOrderBy executeQuery 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderWithOrderBy ResultSet遍历 耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderWithOrderBy 总耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>selectOrderWithOrderBy 件数</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>mariadb</t>
+  </si>
+  <si>
+    <t>mariadb1</t>
+  </si>
+  <si>
+    <t>(Product 表添加连接字段索引后)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -39,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,11 +207,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,6 +231,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -84,9 +260,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +300,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,74 +330,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,19 +346,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,163 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,8 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,52 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,158 +602,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +1154,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,49 +1162,1395 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="2" max="2" width="22.948275862069" customWidth="true"/>
-    <col min="3" max="3" width="25.0603448275862" customWidth="true"/>
-    <col min="4" max="4" width="22.1551724137931" customWidth="true"/>
-    <col min="5" max="5" width="23.7672413793103" customWidth="true"/>
-    <col min="6" max="6" width="23.9741379310345" customWidth="true"/>
-    <col min="7" max="7" width="27.3620689655172" customWidth="true"/>
-    <col min="8" max="8" width="28.4827586206897" customWidth="true"/>
-    <col min="9" max="9" width="36.9913793103448" customWidth="true"/>
-    <col min="10" max="10" width="36.7931034482759" customWidth="true"/>
-    <col min="11" max="11" width="25.3706896551724" customWidth="true"/>
-    <col min="12" max="12" width="17.6465517241379" customWidth="true"/>
-    <col min="13" max="13" width="30.0862068965517" customWidth="true"/>
-    <col min="14" max="14" width="38.6034482758621" customWidth="true"/>
-    <col min="15" max="15" width="38.301724137931" customWidth="true"/>
-    <col min="16" max="16" width="26.8793103448276" customWidth="true"/>
-    <col min="17" max="17" width="19.1551724137931" customWidth="true"/>
-    <col min="18" max="18" width="30.2931034482759" customWidth="true"/>
-    <col min="19" max="19" width="38.8103448275862" customWidth="true"/>
-    <col min="20" max="20" width="38.6120689655172" customWidth="true"/>
-    <col min="21" max="21" width="27.1810344827586" customWidth="true"/>
-    <col min="22" max="22" width="19.4568965517241" customWidth="true"/>
-    <col min="23" max="23" width="33.5862068965517" customWidth="true"/>
-    <col min="24" max="24" width="42.0948275862069" customWidth="true"/>
-    <col min="25" max="25" width="41.8965517241379" customWidth="true"/>
-    <col min="26" max="26" width="30.4741379310345" customWidth="true"/>
-    <col min="27" max="27" width="22.75" customWidth="true"/>
-    <col min="28" max="28" width="38.301724137931" customWidth="true"/>
-    <col min="29" max="29" width="46.8103448275862" customWidth="true"/>
-    <col min="30" max="30" width="46.6120689655172" customWidth="true"/>
-    <col min="31" max="31" width="35.1896551724138" customWidth="true"/>
-    <col min="32" max="32" width="27.4655172413793" customWidth="true"/>
-    <col min="33" max="33" width="38.6120689655172" customWidth="true"/>
-    <col min="34" max="34" width="47.1206896551724" customWidth="true"/>
-    <col min="35" max="35" width="46.8189655172414" customWidth="true"/>
-    <col min="36" max="36" width="35.3965517241379" customWidth="true"/>
-    <col min="37" max="37" width="27.6724137931034" customWidth="true"/>
-    <col min="38" max="38" width="41.8965517241379" customWidth="true"/>
-    <col min="39" max="39" width="50.4137931034483" customWidth="true"/>
-    <col min="40" max="40" width="50.2155172413793" customWidth="true"/>
-    <col min="41" max="41" width="38.7931034482759" customWidth="true"/>
-    <col min="42" max="42" width="31.0689655172414" customWidth="true"/>
+    <col min="2" max="46" width="14.2155172413793" customWidth="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="87" customHeight="true" spans="1:46">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="15.65" spans="1:46">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>208</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13397</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1111</v>
+      </c>
+      <c r="E2" s="2">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>324</v>
+      </c>
+      <c r="I2" s="2">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>361</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>983</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1013</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>535</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>564</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>192</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>222</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" ht="15.65" spans="2:46">
+      <c r="B3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12869</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1170</v>
+      </c>
+      <c r="E3" s="2">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>322</v>
+      </c>
+      <c r="I3" s="2">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>350</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>947</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>974</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>604</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>639</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>206</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>27</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>235</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" ht="15.65" spans="2:46">
+      <c r="B4" s="2">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12835</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1051</v>
+      </c>
+      <c r="E4" s="2">
+        <v>133</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>330</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>362</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>951</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>979</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>532</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>562</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>173</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>202</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" spans="1:46">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6542</v>
+      </c>
+      <c r="D5" s="2">
+        <v>626</v>
+      </c>
+      <c r="E5" s="2">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>378</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>393</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1011</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1025</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>704057</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>704064</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>7333</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>7342</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>189</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>199</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" ht="15.65" spans="2:46">
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6208</v>
+      </c>
+      <c r="D6" s="2">
+        <v>569</v>
+      </c>
+      <c r="E6" s="2">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>383</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>391</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1019</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>700704</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>700710</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>7470</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>7478</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>151</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>156</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" ht="15.65" spans="2:46">
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6042</v>
+      </c>
+      <c r="D7" s="2">
+        <v>580</v>
+      </c>
+      <c r="E7" s="2">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>365</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>371</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>989</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>995</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>701910</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>701918</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>7429</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>7437</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>147</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>152</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" ht="15.65" spans="1:46">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6462</v>
+      </c>
+      <c r="D8" s="2">
+        <v>593</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>379</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>393</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2</v>
+      </c>
+      <c r="U8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1039</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1710</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1717</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>7445</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>7451</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>188</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>199</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" ht="15.65" spans="1:46">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5973</v>
+      </c>
+      <c r="D9" s="2">
+        <v>632</v>
+      </c>
+      <c r="E9" s="3">
+        <v>102</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>374</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>383</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>23</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>3</v>
+      </c>
+      <c r="U9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1055</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1652</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1659</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>7349</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>7356</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>145</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>149</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" ht="15.65" spans="2:46">
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>558</v>
+      </c>
+      <c r="E10" s="3">
+        <v>99</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>379</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>387</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>27</v>
+      </c>
+      <c r="P10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3</v>
+      </c>
+      <c r="U10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1056</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1651</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1657</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>7465</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>7472</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>151</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>156</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/db/DB性能测试结果.xlsx
+++ b/db/DB性能测试结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>DB</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>mariadb1(Product 表添加连接字段索引后)</t>
+  </si>
+  <si>
+    <t>postgres</t>
   </si>
   <si>
     <t>单表插入</t>
@@ -266,12 +269,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,14 +290,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -316,8 +333,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,53 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,16 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,26 +434,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -457,7 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +533,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,157 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +679,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -674,56 +699,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,157 +732,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,22 +936,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,10 +1631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT37"/>
+  <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -1622,22 +1653,22 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1652,7 +1683,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1667,7 +1698,7 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -1682,7 +1713,7 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1697,7 +1728,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
@@ -1712,7 +1743,7 @@
       <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="3" t="s">
@@ -1727,7 +1758,7 @@
       <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="3" t="s">
@@ -1742,7 +1773,7 @@
       <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="3" t="s">
@@ -1756,834 +1787,834 @@
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:46">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>208</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>13397</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>1111</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>134</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>324</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="1">
         <v>31</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>361</v>
       </c>
-      <c r="K2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="K2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>25</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="1">
         <v>7</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="1">
         <v>35</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="1">
         <v>100000</v>
       </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <v>2</v>
       </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>4</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="1">
         <v>10000</v>
       </c>
-      <c r="V2" s="5">
-        <v>1</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
         <v>100</v>
       </c>
-      <c r="AA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5">
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
         <v>983</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="1">
         <v>29</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="1">
         <v>1013</v>
       </c>
-      <c r="AE2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="5">
+      <c r="AE2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
         <v>535</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="1">
         <v>26</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="1">
         <v>564</v>
       </c>
-      <c r="AJ2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="5">
+      <c r="AJ2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
         <v>401</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="1">
         <v>30</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="1">
         <v>433</v>
       </c>
-      <c r="AO2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="5">
+      <c r="AO2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
         <v>192</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="1">
         <v>27</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="1">
         <v>222</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" ht="15.65" spans="1:46">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1">
         <v>85</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>12869</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>1170</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>134</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>322</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>26</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>350</v>
       </c>
-      <c r="K3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="K3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>25</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="1">
         <v>29</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="1">
         <v>100000</v>
       </c>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>4</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="1">
         <v>10000</v>
       </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
         <v>100</v>
       </c>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
         <v>947</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="1">
         <v>26</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="1">
         <v>974</v>
       </c>
-      <c r="AE3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="5">
+      <c r="AE3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
         <v>604</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="1">
         <v>33</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="1">
         <v>639</v>
       </c>
-      <c r="AJ3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK3" s="5">
+      <c r="AJ3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK3" s="1">
         <v>2</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AL3" s="1">
         <v>327</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="1">
         <v>34</v>
       </c>
-      <c r="AN3" s="5">
+      <c r="AN3" s="1">
         <v>364</v>
       </c>
-      <c r="AO3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="5">
+      <c r="AO3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
         <v>206</v>
       </c>
-      <c r="AR3" s="5">
+      <c r="AR3" s="1">
         <v>27</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" s="1">
         <v>235</v>
       </c>
-      <c r="AT3" s="5">
+      <c r="AT3" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" ht="15.65" spans="1:46">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1">
         <v>72</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>12835</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>1051</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>133</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>330</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="1">
         <v>30</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>362</v>
       </c>
-      <c r="K4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>26</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="1">
         <v>30</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="1">
         <v>100000</v>
       </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <v>5</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="1">
         <v>10000</v>
       </c>
-      <c r="V4" s="5">
-        <v>1</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="5">
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
         <v>100</v>
       </c>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5">
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
         <v>951</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="1">
         <v>27</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="1">
         <v>979</v>
       </c>
-      <c r="AE4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="5">
+      <c r="AE4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
         <v>532</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="1">
         <v>28</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="1">
         <v>562</v>
       </c>
-      <c r="AJ4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="5">
+      <c r="AJ4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
         <v>397</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="1">
         <v>32</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4" s="1">
         <v>432</v>
       </c>
-      <c r="AO4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP4" s="5">
+      <c r="AO4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP4" s="1">
         <v>2</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4" s="1">
         <v>173</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AR4" s="1">
         <v>27</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AS4" s="1">
         <v>202</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AT4" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="15.65" spans="1:46">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>6542</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>626</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>73</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>378</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>393</v>
       </c>
-      <c r="K5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>24</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="1">
         <v>100000</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>3</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="1">
         <v>10000</v>
       </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="5">
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
         <v>100</v>
       </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5">
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
         <v>1011</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="1">
         <v>12</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="1">
         <v>1025</v>
       </c>
-      <c r="AE5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="5">
+      <c r="AE5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
         <v>704057</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="1">
         <v>4</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="1">
         <v>704064</v>
       </c>
-      <c r="AJ5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="5">
+      <c r="AJ5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1">
         <v>7333</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="1">
         <v>6</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="1">
         <v>7342</v>
       </c>
-      <c r="AO5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="5">
+      <c r="AO5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
         <v>189</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="1">
         <v>8</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" s="1">
         <v>199</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" ht="15.65" spans="1:46">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>6208</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>569</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>76</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>383</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>391</v>
       </c>
-      <c r="K6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="K6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>23</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>25</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="1">
         <v>100000</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>3</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="1">
         <v>10000</v>
       </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>100</v>
       </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1019</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="1">
         <v>4</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="1">
         <v>1024</v>
       </c>
-      <c r="AE6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
+      <c r="AE6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
         <v>700704</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="1">
         <v>5</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="1">
         <v>700710</v>
       </c>
-      <c r="AJ6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="5">
+      <c r="AJ6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
         <v>7470</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6" s="1">
         <v>6</v>
       </c>
-      <c r="AN6" s="5">
+      <c r="AN6" s="1">
         <v>7478</v>
       </c>
-      <c r="AO6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="5">
+      <c r="AO6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>151</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AR6" s="1">
         <v>3</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AS6" s="1">
         <v>156</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AT6" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="15.65" spans="1:46">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>6042</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>580</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>62</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>365</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>371</v>
       </c>
-      <c r="K7" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>23</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>25</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="1">
         <v>100000</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <v>2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="1">
         <v>10000</v>
       </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>100</v>
       </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>989</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="1">
         <v>4</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="1">
         <v>995</v>
       </c>
-      <c r="AE7" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
+      <c r="AE7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
         <v>701910</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="1">
         <v>6</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="1">
         <v>701918</v>
       </c>
-      <c r="AJ7" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="5">
+      <c r="AJ7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
         <v>7429</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7" s="1">
         <v>5</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AN7" s="1">
         <v>7437</v>
       </c>
-      <c r="AO7" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="5">
+      <c r="AO7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>147</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AR7" s="1">
         <v>3</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AS7" s="1">
         <v>152</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AT7" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2591,610 +2622,1081 @@
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>110</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>6462</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>593</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="13">
         <v>104</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>379</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>393</v>
       </c>
-      <c r="K8" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="K8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>22</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>24</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="1">
         <v>100000</v>
       </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <v>2</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="1">
         <v>10000</v>
       </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5">
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
         <v>100</v>
       </c>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5">
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
         <v>1039</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="1">
         <v>11</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="1">
         <v>1052</v>
       </c>
-      <c r="AE8" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="9">
+      <c r="AE8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13">
         <v>1710</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="1">
         <v>5</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="1">
         <v>1717</v>
       </c>
-      <c r="AJ8" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="5">
+      <c r="AJ8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
         <v>7445</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AM8" s="1">
         <v>4</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AN8" s="1">
         <v>7451</v>
       </c>
-      <c r="AO8" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="5">
+      <c r="AO8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>188</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AR8" s="1">
         <v>9</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="AS8" s="1">
         <v>199</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AT8" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="9" ht="15.65" spans="1:46">
       <c r="A9" s="6"/>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>5973</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>632</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="13">
         <v>102</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>374</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1">
         <v>383</v>
       </c>
-      <c r="K9" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="K9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>23</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>24</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="1">
         <v>100000</v>
       </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>3</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="1">
         <v>10000</v>
       </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5">
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
         <v>100</v>
       </c>
-      <c r="AA9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5">
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
         <v>1050</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="1">
         <v>4</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="1">
         <v>1055</v>
       </c>
-      <c r="AE9" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="9">
+      <c r="AE9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
         <v>1652</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" s="1">
         <v>5</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="1">
         <v>1659</v>
       </c>
-      <c r="AJ9" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="5">
+      <c r="AJ9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1">
         <v>7349</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AM9" s="1">
         <v>5</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AN9" s="1">
         <v>7356</v>
       </c>
-      <c r="AO9" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5">
+      <c r="AO9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>145</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AR9" s="1">
         <v>3</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="AS9" s="1">
         <v>149</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AT9" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="10" ht="15.65" spans="1:46">
       <c r="A10" s="6"/>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>5997</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>558</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="13">
         <v>99</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>379</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="1">
         <v>6</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1">
         <v>387</v>
       </c>
-      <c r="K10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="K10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>25</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>27</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="1">
         <v>100000</v>
       </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
         <v>2</v>
       </c>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
         <v>3</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="1">
         <v>10000</v>
       </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <v>100</v>
       </c>
-      <c r="AA10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5">
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
         <v>1050</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="1">
         <v>5</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="1">
         <v>1056</v>
       </c>
-      <c r="AE10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="9">
+      <c r="AE10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
         <v>1651</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AH10" s="1">
         <v>4</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AI10" s="1">
         <v>1657</v>
       </c>
-      <c r="AJ10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="5">
+      <c r="AJ10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
         <v>7465</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AM10" s="1">
         <v>5</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AN10" s="1">
         <v>7472</v>
       </c>
-      <c r="AO10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="5">
+      <c r="AO10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>151</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AR10" s="1">
         <v>3</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AS10" s="1">
         <v>156</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AT10" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" ht="15.65" spans="1:46">
+      <c r="A11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8">
+        <v>268</v>
+      </c>
+      <c r="C11" s="8">
+        <v>30541</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2713</v>
+      </c>
+      <c r="E11" s="8">
+        <v>194</v>
+      </c>
+      <c r="F11" s="8">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>666</v>
+      </c>
+      <c r="I11" s="8">
+        <v>24</v>
+      </c>
+      <c r="J11" s="8">
+        <v>701</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>7</v>
+      </c>
+      <c r="M11" s="8">
+        <v>53</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8">
+        <v>68</v>
+      </c>
+      <c r="P11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5</v>
+      </c>
+      <c r="R11" s="8">
+        <v>4</v>
+      </c>
+      <c r="S11" s="8">
+        <v>2</v>
+      </c>
+      <c r="T11" s="8">
+        <v>13</v>
+      </c>
+      <c r="U11" s="8">
+        <v>10000</v>
+      </c>
+      <c r="V11" s="8">
+        <v>5</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>747</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>775</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>2837</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>2857</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>746</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>765</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>424</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>439</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" ht="15.65" spans="1:46">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8">
+        <v>30118</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2701</v>
+      </c>
+      <c r="E12" s="8">
+        <v>190</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>645</v>
+      </c>
+      <c r="I12" s="8">
+        <v>12</v>
+      </c>
+      <c r="J12" s="8">
+        <v>663</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>46</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>53</v>
+      </c>
+      <c r="P12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>5</v>
+      </c>
+      <c r="R12" s="8">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>9</v>
+      </c>
+      <c r="U12" s="8">
+        <v>10000</v>
+      </c>
+      <c r="V12" s="8">
+        <v>5</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>741</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>763</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>2818</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>18</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>2843</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>725</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>744</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>449</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>11</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>468</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" ht="15.65" spans="1:46">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8">
+        <v>29914</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2677</v>
+      </c>
+      <c r="E13" s="8">
+        <v>188</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>661</v>
+      </c>
+      <c r="I13" s="8">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8">
+        <v>683</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>5</v>
+      </c>
+      <c r="M13" s="8">
+        <v>46</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>53</v>
+      </c>
+      <c r="P13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>5</v>
+      </c>
+      <c r="R13" s="8">
+        <v>4</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>9</v>
+      </c>
+      <c r="U13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="V13" s="8">
+        <v>5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>741</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>757</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>2845</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>13</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>2863</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>733</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>753</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>456</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>9</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>472</v>
+      </c>
+      <c r="AT13" s="8">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12835</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1051</v>
+      </c>
+      <c r="D22" s="10">
+        <v>133</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6042</v>
+      </c>
+      <c r="C23" s="10">
+        <v>569</v>
+      </c>
+      <c r="D23" s="10">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B24" s="11">
+        <v>29914</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2677</v>
+      </c>
+      <c r="D24" s="11">
+        <v>188</v>
+      </c>
+      <c r="E24" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="8">
-        <v>12835</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1051</v>
-      </c>
-      <c r="D22" s="8">
-        <v>133</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="B28" s="10">
+        <v>322</v>
+      </c>
+      <c r="C28" s="10">
+        <v>25</v>
+      </c>
+      <c r="D28" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="8">
-        <v>6042</v>
-      </c>
-      <c r="C23" s="8">
-        <v>569</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B29" s="10">
+        <v>365</v>
+      </c>
+      <c r="C29" s="10">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="11">
+        <v>645</v>
+      </c>
+      <c r="C30" s="11">
+        <v>46</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="D34" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8">
-        <v>322</v>
-      </c>
-      <c r="C26" s="8">
-        <v>25</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="B35" s="10">
+        <v>947</v>
+      </c>
+      <c r="C35" s="10">
+        <v>532</v>
+      </c>
+      <c r="D35" s="10">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="8">
-        <v>365</v>
-      </c>
-      <c r="C27" s="8">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="B36" s="10">
+        <v>989</v>
+      </c>
+      <c r="C36" s="12">
+        <v>700704</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7333</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11">
+        <v>741</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2818</v>
+      </c>
+      <c r="D37" s="11">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="8">
-        <v>947</v>
-      </c>
-      <c r="C31" s="8">
-        <v>532</v>
-      </c>
-      <c r="D31" s="8">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="B41" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="8">
-        <v>989</v>
-      </c>
-      <c r="C32" s="8">
-        <v>700704</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7333</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="8">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="B42" s="10">
         <v>147</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3219,48 +3721,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -3304,7 +3806,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -3348,7 +3850,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -3392,7 +3894,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -3436,7 +3938,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3444,10 +3946,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3455,10 +3957,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3485,48 +3987,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -3570,7 +4072,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -3614,7 +4116,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -3658,7 +4160,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -3702,7 +4204,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3710,10 +4212,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3721,10 +4223,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/db/DB性能测试结果.xlsx
+++ b/db/DB性能测试结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>DB</t>
   </si>
@@ -204,10 +204,13 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N(mariadb:Y)</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>* 连接字段加上索引后，100万连1万的case，mariadb的耗时减少到1651毫秒，但同时增加索引的Product 表的insert时间从 62毫秒增加到 99毫秒</t>
+    <t>* mariadb内联查询如果连接字段上没有索引，那么会极慢，加上索引后才能接近其他数据库的表现(但同时由于添加索引会稍微降低写入的性能)。</t>
   </si>
   <si>
     <t>倒序排序</t>
@@ -269,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -304,7 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +330,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,75 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -409,16 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +383,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,19 +458,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,55 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,49 +614,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,15 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -714,6 +708,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,21 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -778,152 +781,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,28 +945,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1631,7 +1628,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1790,861 +1787,904 @@
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1">
-        <v>208</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13397</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1111</v>
-      </c>
-      <c r="E2" s="1">
-        <v>134</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B2" s="6">
+        <v>337</v>
+      </c>
+      <c r="C2" s="6">
+        <v>24004</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1713</v>
+      </c>
+      <c r="E2" s="6">
+        <v>165</v>
+      </c>
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
-        <v>324</v>
-      </c>
-      <c r="I2" s="1">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1">
-        <v>361</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="H2" s="6">
+        <v>591</v>
+      </c>
+      <c r="I2" s="6">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6">
+        <v>653</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="6">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6">
+        <v>19</v>
+      </c>
+      <c r="O2" s="6">
+        <v>73</v>
+      </c>
+      <c r="P2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>4</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
         <v>7</v>
       </c>
-      <c r="O2" s="1">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="U2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
         <v>2</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="6">
         <v>100</v>
       </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>983</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1013</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>535</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>564</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>401</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>433</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>192</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>27</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>222</v>
-      </c>
-      <c r="AT2" s="1">
+      <c r="AA2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>1768</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>1821</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>1009</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>1099</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>609</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>665</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>319</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>56</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>378</v>
+      </c>
+      <c r="AT2" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" ht="15.65" spans="1:46">
       <c r="A3" s="5"/>
-      <c r="B3" s="1">
-        <v>85</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12869</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1170</v>
-      </c>
-      <c r="E3" s="1">
-        <v>134</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="6">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6">
+        <v>22197</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1744</v>
+      </c>
+      <c r="E3" s="6">
+        <v>170</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>571</v>
+      </c>
+      <c r="I3" s="6">
+        <v>48</v>
+      </c>
+      <c r="J3" s="6">
+        <v>621</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>46</v>
+      </c>
+      <c r="N3" s="6">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6">
+        <v>53</v>
+      </c>
+      <c r="P3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>3</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>5</v>
+      </c>
+      <c r="U3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1729</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>1785</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>1026</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>49</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>1077</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>322</v>
-      </c>
-      <c r="I3" s="1">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1">
-        <v>350</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>29</v>
-      </c>
-      <c r="P3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="AL3" s="6">
+        <v>611</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>663</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>947</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>974</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>604</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>639</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>327</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>364</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>206</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>235</v>
-      </c>
-      <c r="AT3" s="1">
+      <c r="AQ3" s="6">
+        <v>308</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>49</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>360</v>
+      </c>
+      <c r="AT3" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" ht="15.65" spans="1:46">
       <c r="A4" s="5"/>
-      <c r="B4" s="1">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12835</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1051</v>
-      </c>
-      <c r="E4" s="1">
-        <v>133</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="6">
+        <v>122</v>
+      </c>
+      <c r="C4" s="6">
+        <v>22173</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1699</v>
+      </c>
+      <c r="E4" s="6">
+        <v>193</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>579</v>
+      </c>
+      <c r="I4" s="6">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6">
+        <v>630</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>46</v>
+      </c>
+      <c r="N4" s="6">
+        <v>4</v>
+      </c>
+      <c r="O4" s="6">
+        <v>52</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>330</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1723</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>1772</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>1060</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>53</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>1116</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>645</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>48</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>695</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>310</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>49</v>
+      </c>
+      <c r="AS4" s="6">
         <v>362</v>
       </c>
-      <c r="K4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>5</v>
-      </c>
-      <c r="U4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>951</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>979</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>532</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>562</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>397</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>432</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>173</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>27</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>202</v>
-      </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="15.65" spans="1:46">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6">
+        <v>22130</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1739</v>
+      </c>
+      <c r="E5" s="6">
+        <v>184</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>574</v>
+      </c>
+      <c r="I5" s="6">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6">
+        <v>624</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>45</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6">
+        <v>52</v>
+      </c>
+      <c r="P5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>3</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
-        <v>6542</v>
-      </c>
-      <c r="D5" s="1">
-        <v>626</v>
-      </c>
-      <c r="E5" s="1">
-        <v>73</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>378</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1">
-        <v>393</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>22</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24</v>
-      </c>
-      <c r="P5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1745</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>1795</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>1054</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>51</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1107</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK5" s="6">
         <v>3</v>
       </c>
-      <c r="U5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1011</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1025</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>704057</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>704064</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>7333</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>7342</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>189</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>199</v>
-      </c>
-      <c r="AT5" s="1">
+      <c r="AL5" s="6">
+        <v>597</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>49</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>650</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>334</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>388</v>
+      </c>
+      <c r="AT5" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" ht="15.65" spans="1:46">
       <c r="A6" s="5"/>
-      <c r="B6" s="1">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6208</v>
-      </c>
-      <c r="D6" s="1">
-        <v>569</v>
-      </c>
-      <c r="E6" s="1">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="6">
+        <v>107</v>
+      </c>
+      <c r="C6" s="6">
+        <v>22314</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1766</v>
+      </c>
+      <c r="E6" s="6">
+        <v>176</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>574</v>
+      </c>
+      <c r="I6" s="6">
+        <v>48</v>
+      </c>
+      <c r="J6" s="6">
+        <v>624</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>47</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>55</v>
+      </c>
+      <c r="P6" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>6</v>
+      </c>
+      <c r="U6" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>383</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>391</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3</v>
-      </c>
-      <c r="U6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="6">
         <v>100</v>
       </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1019</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>1024</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>700704</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>700710</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>7470</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>7478</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>151</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>156</v>
-      </c>
-      <c r="AT6" s="1">
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1780</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>1832</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>980</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>1031</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>624</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>50</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>677</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>308</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>48</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>359</v>
+      </c>
+      <c r="AT6" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="15.65" spans="1:46">
       <c r="A7" s="5"/>
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6042</v>
-      </c>
-      <c r="D7" s="1">
-        <v>580</v>
-      </c>
-      <c r="E7" s="1">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>365</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:AT7" si="0">MIN(B2:B6)</f>
+        <v>102</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>22130</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>1699</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>571</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>621</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J7" s="1">
-        <v>371</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="U7" s="7">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>989</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>995</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>701910</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>701918</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>7429</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>7437</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>147</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>152</v>
-      </c>
-      <c r="AT7" s="1">
+      <c r="AA7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="0"/>
+        <v>1723</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="0"/>
+        <v>1772</v>
+      </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AI7" s="7">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="AK7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="AM7" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AN7" s="7">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="AO7" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="AP7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="7">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="AR7" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AS7" s="7">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="AT7" s="7">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="8" ht="15.65" spans="1:46">
-      <c r="A8" s="6" t="s">
-        <v>48</v>
+      <c r="A8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
-        <v>6462</v>
+        <v>6542</v>
       </c>
       <c r="D8" s="1">
-        <v>593</v>
-      </c>
-      <c r="E8" s="13">
-        <v>104</v>
+        <v>626</v>
+      </c>
+      <c r="E8" s="1">
+        <v>73</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1">
         <v>393</v>
@@ -2677,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" s="1">
         <v>10000</v>
@@ -2701,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="AC8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" s="1">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="AE8" s="1">
         <v>1000000</v>
@@ -2715,29 +2755,29 @@
       <c r="AF8" s="1">
         <v>1</v>
       </c>
-      <c r="AG8" s="13">
-        <v>1710</v>
+      <c r="AG8" s="1">
+        <v>704057</v>
       </c>
       <c r="AH8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="1">
-        <v>1717</v>
+        <v>704064</v>
       </c>
       <c r="AJ8" s="1">
         <v>1000000</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>7445</v>
+        <v>7333</v>
       </c>
       <c r="AM8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN8" s="1">
-        <v>7451</v>
+        <v>7342</v>
       </c>
       <c r="AO8" s="1">
         <v>1000000</v>
@@ -2746,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AR8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS8" s="1">
         <v>199</v>
@@ -2759,33 +2799,33 @@
       </c>
     </row>
     <row r="9" ht="15.65" spans="1:46">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>5973</v>
+        <v>6208</v>
       </c>
       <c r="D9" s="1">
-        <v>632</v>
-      </c>
-      <c r="E9" s="13">
-        <v>102</v>
+        <v>569</v>
+      </c>
+      <c r="E9" s="1">
+        <v>76</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="I9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K9" s="1">
         <v>1000000</v>
@@ -2800,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1">
         <v>100000</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -2830,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>100</v>
@@ -2839,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="AC9" s="1">
         <v>4</v>
       </c>
       <c r="AD9" s="1">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="AE9" s="1">
         <v>1000000</v>
@@ -2853,14 +2893,14 @@
       <c r="AF9" s="1">
         <v>0</v>
       </c>
-      <c r="AG9" s="13">
-        <v>1652</v>
+      <c r="AG9" s="1">
+        <v>700704</v>
       </c>
       <c r="AH9" s="1">
         <v>5</v>
       </c>
       <c r="AI9" s="1">
-        <v>1659</v>
+        <v>700710</v>
       </c>
       <c r="AJ9" s="1">
         <v>1000000</v>
@@ -2869,91 +2909,91 @@
         <v>1</v>
       </c>
       <c r="AL9" s="1">
-        <v>7349</v>
+        <v>7470</v>
       </c>
       <c r="AM9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN9" s="1">
-        <v>7356</v>
+        <v>7478</v>
       </c>
       <c r="AO9" s="1">
         <v>1000000</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AR9" s="1">
         <v>3</v>
       </c>
       <c r="AS9" s="1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AT9" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="10" ht="15.65" spans="1:46">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>5997</v>
+        <v>6042</v>
       </c>
       <c r="D10" s="1">
-        <v>558</v>
-      </c>
-      <c r="E10" s="13">
-        <v>99</v>
+        <v>580</v>
+      </c>
+      <c r="E10" s="1">
+        <v>62</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="K10" s="1">
         <v>1000000</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>25</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>27</v>
       </c>
       <c r="P10" s="1">
         <v>100000</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
         <v>2</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>3</v>
       </c>
       <c r="U10" s="1">
         <v>10000</v>
@@ -2977,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>1050</v>
+        <v>989</v>
       </c>
       <c r="AC10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
-        <v>1056</v>
+        <v>995</v>
       </c>
       <c r="AE10" s="1">
         <v>1000000</v>
@@ -2991,712 +3031,2082 @@
       <c r="AF10" s="1">
         <v>0</v>
       </c>
-      <c r="AG10" s="13">
-        <v>1651</v>
+      <c r="AG10" s="1">
+        <v>701910</v>
       </c>
       <c r="AH10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI10" s="1">
-        <v>1657</v>
+        <v>701918</v>
       </c>
       <c r="AJ10" s="1">
         <v>1000000</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
-        <v>7465</v>
+        <v>7429</v>
       </c>
       <c r="AM10" s="1">
         <v>5</v>
       </c>
       <c r="AN10" s="1">
-        <v>7472</v>
+        <v>7437</v>
       </c>
       <c r="AO10" s="1">
         <v>1000000</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AR10" s="1">
         <v>3</v>
       </c>
       <c r="AS10" s="1">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AT10" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="11" ht="15.65" spans="1:46">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="8">
-        <v>268</v>
-      </c>
-      <c r="C11" s="8">
-        <v>30541</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2713</v>
-      </c>
-      <c r="E11" s="8">
-        <v>194</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6">
+        <v>88</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10899</v>
+      </c>
+      <c r="D11" s="6">
+        <v>968</v>
+      </c>
+      <c r="E11" s="6">
+        <v>131</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>654</v>
+      </c>
+      <c r="I11" s="6">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6">
+        <v>681</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>42</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>46</v>
+      </c>
+      <c r="P11" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>3</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>4</v>
+      </c>
+      <c r="U11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>1888</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>1896</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>3175</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>19</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>3197</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>14893</v>
+      </c>
+      <c r="AM11" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="8">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>666</v>
-      </c>
-      <c r="I11" s="8">
-        <v>24</v>
-      </c>
-      <c r="J11" s="8">
-        <v>701</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L11" s="8">
-        <v>7</v>
-      </c>
-      <c r="M11" s="8">
-        <v>53</v>
-      </c>
-      <c r="N11" s="8">
-        <v>6</v>
-      </c>
-      <c r="O11" s="8">
-        <v>68</v>
-      </c>
-      <c r="P11" s="8">
-        <v>100000</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="AN11" s="6">
+        <v>14905</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>285</v>
+      </c>
+      <c r="AR11" s="6">
         <v>5</v>
       </c>
-      <c r="R11" s="8">
-        <v>4</v>
-      </c>
-      <c r="S11" s="8">
-        <v>2</v>
-      </c>
-      <c r="T11" s="8">
-        <v>13</v>
-      </c>
-      <c r="U11" s="8">
-        <v>10000</v>
-      </c>
-      <c r="V11" s="8">
-        <v>5</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>747</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>21</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>775</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>7</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>2837</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>12</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>2857</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>6</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>746</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>12</v>
-      </c>
-      <c r="AN11" s="8">
-        <v>765</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>5</v>
-      </c>
-      <c r="AQ11" s="8">
-        <v>424</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>8</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>439</v>
-      </c>
-      <c r="AT11" s="8">
+      <c r="AS11" s="6">
+        <v>293</v>
+      </c>
+      <c r="AT11" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" ht="15.65" spans="1:46">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10544</v>
+      </c>
+      <c r="D12" s="6">
+        <v>963</v>
+      </c>
+      <c r="E12" s="6">
+        <v>138</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>646</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>657</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>51</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>54</v>
       </c>
-      <c r="C12" s="8">
-        <v>30118</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2701</v>
-      </c>
-      <c r="E12" s="8">
-        <v>190</v>
-      </c>
-      <c r="F12" s="8">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="P12" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>3</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="8">
-        <v>645</v>
-      </c>
-      <c r="I12" s="8">
-        <v>12</v>
-      </c>
-      <c r="J12" s="8">
-        <v>663</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5</v>
-      </c>
-      <c r="M12" s="8">
-        <v>46</v>
-      </c>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="8">
-        <v>53</v>
-      </c>
-      <c r="P12" s="8">
-        <v>100000</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>5</v>
-      </c>
-      <c r="R12" s="8">
-        <v>3</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>9</v>
-      </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>10000</v>
       </c>
-      <c r="V12" s="8">
-        <v>5</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
+      <c r="V12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>1876</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>1885</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>3036</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>3046</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>14880</v>
+      </c>
+      <c r="AM12" s="6">
         <v>6</v>
       </c>
-      <c r="Z12" s="8">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="8">
+      <c r="AN12" s="6">
+        <v>14888</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>284</v>
+      </c>
+      <c r="AR12" s="6">
         <v>4</v>
       </c>
-      <c r="AB12" s="8">
-        <v>741</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>763</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>6</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>2818</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>18</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>2843</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>6</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>725</v>
-      </c>
-      <c r="AM12" s="8">
-        <v>12</v>
-      </c>
-      <c r="AN12" s="8">
-        <v>744</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AP12" s="8">
-        <v>6</v>
-      </c>
-      <c r="AQ12" s="8">
-        <v>449</v>
-      </c>
-      <c r="AR12" s="8">
-        <v>11</v>
-      </c>
-      <c r="AS12" s="8">
-        <v>468</v>
-      </c>
-      <c r="AT12" s="8">
+      <c r="AS12" s="6">
+        <v>291</v>
+      </c>
+      <c r="AT12" s="6">
         <v>1000000</v>
       </c>
     </row>
     <row r="13" ht="15.65" spans="1:46">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10358</v>
+      </c>
+      <c r="D13" s="6">
+        <v>972</v>
+      </c>
+      <c r="E13" s="6">
+        <v>133</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>640</v>
+      </c>
+      <c r="I13" s="6">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6">
+        <v>651</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>43</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>45</v>
+      </c>
+      <c r="P13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>1932</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>1941</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>3081</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>3090</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>15071</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>15080</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>283</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>289</v>
+      </c>
+      <c r="AT13" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" ht="15.65" spans="1:46">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10466</v>
+      </c>
+      <c r="D14" s="6">
+        <v>979</v>
+      </c>
+      <c r="E14" s="6">
+        <v>132</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>644</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6">
+        <v>655</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>45</v>
+      </c>
+      <c r="P14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>5</v>
+      </c>
+      <c r="U14" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>1937</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>1945</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>3101</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>3109</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="6">
+        <v>14764</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="6">
+        <v>14773</v>
+      </c>
+      <c r="AO14" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="6">
+        <v>283</v>
+      </c>
+      <c r="AR14" s="6">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>289</v>
+      </c>
+      <c r="AT14" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" ht="15.65" spans="1:46">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10377</v>
+      </c>
+      <c r="D15" s="6">
+        <v>975</v>
+      </c>
+      <c r="E15" s="6">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>660</v>
+      </c>
+      <c r="I15" s="6">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6">
+        <v>671</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>50</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>53</v>
+      </c>
+      <c r="P15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>3</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>4</v>
+      </c>
+      <c r="U15" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>1948</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>1956</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>3101</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>3110</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>14771</v>
+      </c>
+      <c r="AM15" s="6">
+        <v>6</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>14780</v>
+      </c>
+      <c r="AO15" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>285</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>4</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>291</v>
+      </c>
+      <c r="AT15" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" ht="15.65" spans="1:46">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7">
+        <f t="shared" ref="B16:AT16" si="1">MIN(B11:B15)</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>10358</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>963</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="1"/>
+        <v>1876</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="1"/>
+        <v>1885</v>
+      </c>
+      <c r="AE16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="1"/>
+        <v>3036</v>
+      </c>
+      <c r="AH16" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AI16" s="7">
+        <f t="shared" si="1"/>
+        <v>3046</v>
+      </c>
+      <c r="AJ16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="AK16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="7">
+        <f t="shared" si="1"/>
+        <v>14764</v>
+      </c>
+      <c r="AM16" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AN16" s="7">
+        <f t="shared" si="1"/>
+        <v>14773</v>
+      </c>
+      <c r="AO16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="AP16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="7">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="AR16" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AS16" s="7">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="AT16" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" ht="15.65" spans="1:46">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6">
+        <v>190</v>
+      </c>
+      <c r="C17" s="6">
+        <v>30862</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2772</v>
+      </c>
+      <c r="E17" s="6">
+        <v>204</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>653</v>
+      </c>
+      <c r="I17" s="6">
+        <v>42</v>
+      </c>
+      <c r="J17" s="6">
+        <v>702</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="6">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6">
+        <v>46</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>55</v>
+      </c>
+      <c r="P17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>5</v>
+      </c>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>9</v>
+      </c>
+      <c r="U17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V17" s="6">
+        <v>5</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>781</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>814</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>2802</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>11</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>2821</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>7</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>743</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>18</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>769</v>
+      </c>
+      <c r="AO17" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP17" s="6">
+        <v>6</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>429</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>8</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>444</v>
+      </c>
+      <c r="AT17" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" ht="15.65" spans="1:46">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6">
+        <v>30234</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2723</v>
+      </c>
+      <c r="E18" s="6">
+        <v>197</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>662</v>
+      </c>
+      <c r="I18" s="6">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6">
+        <v>682</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>46</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>52</v>
+      </c>
+      <c r="P18" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>5</v>
+      </c>
+      <c r="R18" s="6">
+        <v>3</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>8</v>
+      </c>
+      <c r="U18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V18" s="6">
+        <v>5</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>746</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>18</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>771</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>2802</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>11</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>2819</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>769</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>788</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP18" s="6">
+        <v>7</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>440</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>458</v>
+      </c>
+      <c r="AT18" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" ht="15.65" spans="1:46">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
         <v>57</v>
       </c>
-      <c r="C13" s="8">
-        <v>29914</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2677</v>
-      </c>
-      <c r="E13" s="8">
-        <v>188</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="C19" s="6">
+        <v>30065</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2743</v>
+      </c>
+      <c r="E19" s="6">
+        <v>197</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>655</v>
+      </c>
+      <c r="I19" s="6">
+        <v>13</v>
+      </c>
+      <c r="J19" s="6">
+        <v>676</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6">
+        <v>46</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>54</v>
+      </c>
+      <c r="P19" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>5</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>9</v>
+      </c>
+      <c r="U19" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V19" s="6">
+        <v>5</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>744</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>761</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>2802</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>14</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>2822</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK19" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>770</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>789</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>425</v>
+      </c>
+      <c r="AR19" s="6">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="AS19" s="6">
+        <v>441</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" ht="15.65" spans="1:46">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6">
+        <v>117</v>
+      </c>
+      <c r="C20" s="6">
+        <v>30806</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2755</v>
+      </c>
+      <c r="E20" s="6">
+        <v>183</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+      <c r="H20" s="6">
+        <v>651</v>
+      </c>
+      <c r="I20" s="6">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6">
+        <v>670</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L20" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="8">
-        <v>661</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="M20" s="6">
+        <v>46</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>53</v>
+      </c>
+      <c r="P20" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>5</v>
+      </c>
+      <c r="R20" s="6">
+        <v>3</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>8</v>
+      </c>
+      <c r="U20" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V20" s="6">
+        <v>4</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>746</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>18</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>769</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>2799</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>19</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>2823</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>809</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>828</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>441</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>13</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>460</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" ht="15.65" spans="1:46">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6">
+        <v>56</v>
+      </c>
+      <c r="C21" s="6">
+        <v>29892</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2757</v>
+      </c>
+      <c r="E21" s="6">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>672</v>
+      </c>
+      <c r="I21" s="6">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6">
+        <v>694</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="L21" s="6">
+        <v>6</v>
+      </c>
+      <c r="M21" s="6">
+        <v>48</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>56</v>
+      </c>
+      <c r="P21" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>5</v>
+      </c>
+      <c r="R21" s="6">
+        <v>3</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>9</v>
+      </c>
+      <c r="U21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="V21" s="6">
+        <v>4</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>757</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>781</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>2800</v>
+      </c>
+      <c r="AH21" s="6">
         <v>17</v>
       </c>
-      <c r="J13" s="8">
-        <v>683</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="AI21" s="6">
+        <v>2824</v>
+      </c>
+      <c r="AJ21" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AK21" s="6">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>770</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>16</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>793</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>6</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>424</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>8</v>
+      </c>
+      <c r="AS21" s="6">
+        <v>439</v>
+      </c>
+      <c r="AT21" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" ht="15.65" spans="1:46">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7">
+        <f t="shared" ref="B22:AT22" si="2">MIN(B17:B21)</f>
+        <v>54</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="2"/>
+        <v>29892</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>2723</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M13" s="8">
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>651</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="N22" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="2"/>
+        <v>744</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="2"/>
+        <v>761</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AG22" s="7">
+        <f t="shared" si="2"/>
+        <v>2799</v>
+      </c>
+      <c r="AH22" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AI22" s="7">
+        <f t="shared" si="2"/>
+        <v>2819</v>
+      </c>
+      <c r="AJ22" s="7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="AK22" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AL22" s="7">
+        <f t="shared" si="2"/>
+        <v>743</v>
+      </c>
+      <c r="AM22" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AN22" s="7">
+        <f t="shared" si="2"/>
+        <v>769</v>
+      </c>
+      <c r="AO22" s="7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="AP22" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="7">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="AR22" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AS22" s="7">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="AT22" s="7">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="8">
-        <v>100000</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>5</v>
-      </c>
-      <c r="R13" s="8">
-        <v>4</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>9</v>
-      </c>
-      <c r="U13" s="8">
-        <v>10000</v>
-      </c>
-      <c r="V13" s="8">
-        <v>5</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>741</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>757</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>2845</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>13</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>2863</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>7</v>
-      </c>
-      <c r="AL13" s="8">
-        <v>733</v>
-      </c>
-      <c r="AM13" s="8">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="8">
-        <v>753</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="AP13" s="8">
-        <v>6</v>
-      </c>
-      <c r="AQ13" s="8">
-        <v>456</v>
-      </c>
-      <c r="AR13" s="8">
-        <v>9</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>472</v>
-      </c>
-      <c r="AT13" s="8">
-        <v>1000000</v>
+      <c r="E45" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10">
+        <f>C7</f>
+        <v>22130</v>
+      </c>
+      <c r="C46" s="10">
+        <f>D7</f>
+        <v>1699</v>
+      </c>
+      <c r="D46" s="10">
+        <f>E7</f>
+        <v>165</v>
+      </c>
+      <c r="E46" s="10">
+        <f>F7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10">
+        <f>C16</f>
+        <v>10358</v>
+      </c>
+      <c r="C47" s="10">
+        <f>D16</f>
+        <v>963</v>
+      </c>
+      <c r="D47" s="10">
+        <f>E16</f>
+        <v>131</v>
+      </c>
+      <c r="E47" s="10">
+        <f>F16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="10">
+        <f>C22</f>
+        <v>29892</v>
+      </c>
+      <c r="C48" s="10">
+        <f>D22</f>
+        <v>2723</v>
+      </c>
+      <c r="D48" s="10">
+        <f>E22</f>
+        <v>183</v>
+      </c>
+      <c r="E48" s="10">
+        <f>F22</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="10">
-        <v>12835</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1051</v>
-      </c>
-      <c r="D22" s="10">
-        <v>133</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2</v>
+      <c r="B52" s="10">
+        <f>H7</f>
+        <v>571</v>
+      </c>
+      <c r="C52" s="10">
+        <f>M7</f>
+        <v>45</v>
+      </c>
+      <c r="D52" s="10">
+        <f>R7</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="10">
+        <f>W7</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="10">
-        <v>6042</v>
-      </c>
-      <c r="C23" s="10">
-        <v>569</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="B53" s="10">
+        <f>H16</f>
+        <v>640</v>
+      </c>
+      <c r="C53" s="10">
+        <f>M16</f>
+        <v>42</v>
+      </c>
+      <c r="D53" s="10">
+        <f>R16</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="10">
+        <f>W16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="10">
+        <f>H22</f>
+        <v>651</v>
+      </c>
+      <c r="C54" s="10">
+        <f>M22</f>
+        <v>46</v>
+      </c>
+      <c r="D54" s="10">
+        <f>R22</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="10">
+        <f>W22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="10">
-        <v>1</v>
+      <c r="D58" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="10">
+        <f>AB7</f>
+        <v>1723</v>
+      </c>
+      <c r="C59" s="10">
+        <f>AG7</f>
+        <v>980</v>
+      </c>
+      <c r="D59" s="10">
+        <f>AL7</f>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="10">
+        <f>AB16</f>
+        <v>1876</v>
+      </c>
+      <c r="C60" s="11">
+        <f>AG16</f>
+        <v>3036</v>
+      </c>
+      <c r="D60" s="10">
+        <f>AL16</f>
+        <v>14764</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11">
-        <v>29914</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2677</v>
-      </c>
-      <c r="D24" s="11">
-        <v>188</v>
-      </c>
-      <c r="E24" s="11">
-        <v>8</v>
+      <c r="B61" s="10">
+        <f>AB22</f>
+        <v>744</v>
+      </c>
+      <c r="C61" s="10">
+        <f>AG22</f>
+        <v>2799</v>
+      </c>
+      <c r="D61" s="10">
+        <f>AL22</f>
+        <v>743</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>54</v>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="10">
-        <v>322</v>
-      </c>
-      <c r="C28" s="10">
-        <v>25</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
+      <c r="B65" s="10">
+        <f>AQ7</f>
+        <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="10">
-        <v>365</v>
-      </c>
-      <c r="C29" s="10">
-        <v>22</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
+      <c r="B66" s="10">
+        <f>AQ16</f>
+        <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11">
-        <v>645</v>
-      </c>
-      <c r="C30" s="11">
-        <v>46</v>
-      </c>
-      <c r="D30" s="11">
-        <v>3</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="10">
-        <v>947</v>
-      </c>
-      <c r="C35" s="10">
-        <v>532</v>
-      </c>
-      <c r="D35" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="10">
-        <v>989</v>
-      </c>
-      <c r="C36" s="12">
-        <v>700704</v>
-      </c>
-      <c r="D36" s="10">
-        <v>7333</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="11">
-        <v>741</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2818</v>
-      </c>
-      <c r="D37" s="11">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="10">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="10">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="11">
+      <c r="B67" s="10">
+        <f>AQ22</f>
         <v>424</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3721,48 +5131,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -3806,7 +5216,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -3850,7 +5260,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -3894,7 +5304,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -3938,7 +5348,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3946,10 +5356,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3957,10 +5367,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3987,48 +5397,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -4072,7 +5482,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -4116,7 +5526,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -4160,7 +5570,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -4204,7 +5614,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4212,10 +5622,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4223,10 +5633,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/db/DB性能测试结果.xlsx
+++ b/db/DB性能测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21588"/>
+    <workbookView windowWidth="29729" windowHeight="13691"/>
   </bookViews>
   <sheets>
     <sheet name="单连接" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>DB</t>
   </si>
@@ -168,6 +168,12 @@
     <t>postgres</t>
   </si>
   <si>
+    <t>TiDB</t>
+  </si>
+  <si>
+    <t>结果统计:</t>
+  </si>
+  <si>
     <t>单表插入</t>
   </si>
   <si>
@@ -210,7 +216,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>* mariadb内联查询如果连接字段上没有索引，那么会极慢，加上索引后才能接近其他数据库的表现(但同时由于添加索引会稍微降低写入的性能)。</t>
+    <t>* mariadb内联查询如果连接字段上没有索引，那么会极慢(不支持hash连接)，加上索引后才能接近其他数据库的表现(但同时由于添加索引会稍微降低写入的性能)。</t>
   </si>
   <si>
     <t>倒序排序</t>
@@ -272,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -300,22 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,18 +334,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,9 +357,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,10 +404,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,9 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,22 +435,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,13 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,97 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +542,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +584,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,32 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +718,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,17 +753,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,157 +771,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,16 +951,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
@@ -1628,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -1787,873 +1796,873 @@
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>337</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>24004</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>1713</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>165</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="1">
         <v>591</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="1">
         <v>56</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="1">
         <v>653</v>
       </c>
-      <c r="K2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="1">
         <v>50</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="1">
         <v>19</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="1">
         <v>73</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="1">
         <v>100000</v>
       </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
         <v>4</v>
       </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>7</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="1">
         <v>10000</v>
       </c>
-      <c r="V2" s="6">
-        <v>1</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
         <v>2</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="1">
         <v>100</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="1">
         <v>2</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="1">
         <v>1768</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="1">
         <v>50</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="1">
         <v>1821</v>
       </c>
-      <c r="AE2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF2" s="6">
+      <c r="AE2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="1">
         <v>1009</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="1">
         <v>87</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="1">
         <v>1099</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK2" s="6">
+      <c r="AJ2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK2" s="1">
         <v>3</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="1">
         <v>609</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="1">
         <v>52</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="1">
         <v>665</v>
       </c>
-      <c r="AO2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP2" s="6">
+      <c r="AO2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP2" s="1">
         <v>2</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AQ2" s="1">
         <v>319</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AR2" s="1">
         <v>56</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AS2" s="1">
         <v>378</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" ht="15.65" spans="1:46">
       <c r="A3" s="5"/>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>108</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>22197</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>1744</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>170</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>571</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="1">
         <v>48</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>621</v>
       </c>
-      <c r="K3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="K3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>46</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="1">
         <v>5</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="1">
         <v>53</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="1">
         <v>100000</v>
       </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>5</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="1">
         <v>10000</v>
       </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
         <v>100</v>
       </c>
-      <c r="AA3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="6">
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
         <v>1729</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="1">
         <v>54</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="1">
         <v>1785</v>
       </c>
-      <c r="AE3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="6">
+      <c r="AE3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
         <v>1026</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="1">
         <v>49</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="1">
         <v>1077</v>
       </c>
-      <c r="AJ3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK3" s="6">
+      <c r="AJ3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK3" s="1">
         <v>2</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="1">
         <v>611</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="1">
         <v>50</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="1">
         <v>663</v>
       </c>
-      <c r="AO3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP3" s="6">
+      <c r="AO3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="1">
         <v>2</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ3" s="1">
         <v>308</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="1">
         <v>49</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="1">
         <v>360</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" ht="15.65" spans="1:46">
       <c r="A4" s="5"/>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>122</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>22173</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>1699</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>193</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>579</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="1">
         <v>48</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
         <v>630</v>
       </c>
-      <c r="K4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="K4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>46</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="1">
         <v>52</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="1">
         <v>100000</v>
       </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <v>5</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="1">
         <v>10000</v>
       </c>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
         <v>100</v>
       </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
         <v>1723</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="1">
         <v>48</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="1">
         <v>1772</v>
       </c>
-      <c r="AE4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF4" s="6">
+      <c r="AE4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF4" s="1">
         <v>2</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="1">
         <v>1060</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="1">
         <v>53</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="1">
         <v>1116</v>
       </c>
-      <c r="AJ4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="6">
+      <c r="AJ4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
         <v>645</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="1">
         <v>48</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="1">
         <v>695</v>
       </c>
-      <c r="AO4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP4" s="6">
+      <c r="AO4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP4" s="1">
         <v>2</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AQ4" s="1">
         <v>310</v>
       </c>
-      <c r="AR4" s="6">
+      <c r="AR4" s="1">
         <v>49</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="1">
         <v>362</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="15.65" spans="1:46">
       <c r="A5" s="5"/>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>102</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>22130</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>1739</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>184</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>574</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="1">
         <v>48</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
         <v>624</v>
       </c>
-      <c r="K5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>45</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>52</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="1">
         <v>100000</v>
       </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>5</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="1">
         <v>10000</v>
       </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
         <v>100</v>
       </c>
-      <c r="AA5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="6">
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
         <v>1745</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="1">
         <v>48</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="1">
         <v>1795</v>
       </c>
-      <c r="AE5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="6">
+      <c r="AE5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
         <v>1054</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="1">
         <v>51</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="1">
         <v>1107</v>
       </c>
-      <c r="AJ5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK5" s="6">
+      <c r="AJ5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK5" s="1">
         <v>3</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="1">
         <v>597</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="1">
         <v>49</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="1">
         <v>650</v>
       </c>
-      <c r="AO5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP5" s="6">
+      <c r="AO5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="1">
         <v>3</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AQ5" s="1">
         <v>334</v>
       </c>
-      <c r="AR5" s="6">
+      <c r="AR5" s="1">
         <v>51</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AS5" s="1">
         <v>388</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" ht="15.65" spans="1:46">
       <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>107</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>22314</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>1766</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>176</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>574</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="1">
         <v>48</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="1">
         <v>624</v>
       </c>
-      <c r="K6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>47</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="1">
         <v>55</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="1">
         <v>100000</v>
       </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>6</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="1">
         <v>10000</v>
       </c>
-      <c r="V6" s="6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
         <v>2</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="1">
         <v>100</v>
       </c>
-      <c r="AA6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="6">
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1780</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="1">
         <v>50</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="1">
         <v>1832</v>
       </c>
-      <c r="AE6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF6" s="6">
+      <c r="AE6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="1">
         <v>2</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="1">
         <v>980</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="1">
         <v>48</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="1">
         <v>1031</v>
       </c>
-      <c r="AJ6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK6" s="6">
+      <c r="AJ6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK6" s="1">
         <v>2</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="1">
         <v>624</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="1">
         <v>50</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="1">
         <v>677</v>
       </c>
-      <c r="AO6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="6">
+      <c r="AO6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>308</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="1">
         <v>48</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="1">
         <v>359</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="15.65" spans="1:46">
       <c r="A7" s="5"/>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f t="shared" ref="B7:AT7" si="0">MIN(B2:B6)</f>
         <v>102</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>22130</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>1699</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>571</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>621</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="6">
         <f t="shared" si="0"/>
         <v>1723</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <f t="shared" si="0"/>
         <v>1772</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="6">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="6">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="6">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="6">
         <f t="shared" si="0"/>
         <v>597</v>
       </c>
-      <c r="AM7" s="7">
+      <c r="AM7" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="6">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="6">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="6">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="AR7" s="7">
+      <c r="AR7" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AS7" s="6">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AT7" s="6">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
@@ -3075,876 +3084,876 @@
       </c>
     </row>
     <row r="11" ht="15.65" spans="1:46">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>88</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>10899</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>968</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>131</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>654</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="1">
         <v>26</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="1">
         <v>681</v>
       </c>
-      <c r="K11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="K11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>42</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="1">
         <v>46</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="1">
         <v>100000</v>
       </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>3</v>
       </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
         <v>4</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="1">
         <v>10000</v>
       </c>
-      <c r="V11" s="6">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
         <v>100</v>
       </c>
-      <c r="AA11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="6">
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
         <v>1888</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="1">
         <v>6</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="1">
         <v>1896</v>
       </c>
-      <c r="AE11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="AE11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
         <v>3175</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="1">
         <v>19</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="1">
         <v>3197</v>
       </c>
-      <c r="AJ11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="6">
+      <c r="AJ11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
         <v>14893</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="1">
         <v>8</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="1">
         <v>14905</v>
       </c>
-      <c r="AO11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AO11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>285</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AR11" s="1">
         <v>5</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="1">
         <v>293</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" ht="15.65" spans="1:46">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1">
         <v>15</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
         <v>10544</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="1">
         <v>963</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="1">
         <v>138</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>646</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="1">
         <v>9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="1">
         <v>657</v>
       </c>
-      <c r="K12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="K12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>51</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>54</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="1">
         <v>100000</v>
       </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
         <v>3</v>
       </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <v>5</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="1">
         <v>10000</v>
       </c>
-      <c r="V12" s="6">
-        <v>1</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="6">
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
         <v>100</v>
       </c>
-      <c r="AA12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="6">
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
         <v>1876</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="1">
         <v>7</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="1">
         <v>1885</v>
       </c>
-      <c r="AE12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="6">
+      <c r="AE12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
         <v>3036</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="1">
         <v>7</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="1">
         <v>3046</v>
       </c>
-      <c r="AJ12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="6">
+      <c r="AJ12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
         <v>14880</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="1">
         <v>6</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="1">
         <v>14888</v>
       </c>
-      <c r="AO12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="6">
+      <c r="AO12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>284</v>
       </c>
-      <c r="AR12" s="6">
+      <c r="AR12" s="1">
         <v>4</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AS12" s="1">
         <v>291</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="13" ht="15.65" spans="1:46">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>10358</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>972</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>133</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>640</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="1">
         <v>9</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="1">
         <v>651</v>
       </c>
-      <c r="K13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="K13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>43</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>45</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="1">
         <v>100000</v>
       </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
         <v>3</v>
       </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <v>4</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="1">
         <v>10000</v>
       </c>
-      <c r="V13" s="6">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
         <v>100</v>
       </c>
-      <c r="AA13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="6">
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
         <v>1932</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="1">
         <v>7</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="1">
         <v>1941</v>
       </c>
-      <c r="AE13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="6">
+      <c r="AE13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
         <v>3081</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="1">
         <v>6</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="1">
         <v>3090</v>
       </c>
-      <c r="AJ13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="6">
+      <c r="AJ13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
         <v>15071</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="1">
         <v>7</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="1">
         <v>15080</v>
       </c>
-      <c r="AO13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="6">
+      <c r="AO13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
         <v>283</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AR13" s="1">
         <v>4</v>
       </c>
-      <c r="AS13" s="6">
+      <c r="AS13" s="1">
         <v>289</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" ht="15.65" spans="1:46">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>10466</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="1">
         <v>979</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>132</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>644</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="1">
         <v>9</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="1">
         <v>655</v>
       </c>
-      <c r="K14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="K14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>42</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>45</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="1">
         <v>100000</v>
       </c>
-      <c r="Q14" s="6">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
         <v>3</v>
       </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <v>5</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="1">
         <v>10000</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <v>100</v>
       </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
         <v>1937</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="1">
         <v>6</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="1">
         <v>1945</v>
       </c>
-      <c r="AE14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="6">
+      <c r="AE14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="1">
         <v>3101</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AH14" s="1">
         <v>6</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="1">
         <v>3109</v>
       </c>
-      <c r="AJ14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="6">
+      <c r="AJ14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="1">
         <v>14764</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="1">
         <v>7</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="1">
         <v>14773</v>
       </c>
-      <c r="AO14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="6">
+      <c r="AO14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>283</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AR14" s="1">
         <v>4</v>
       </c>
-      <c r="AS14" s="6">
+      <c r="AS14" s="1">
         <v>289</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" ht="15.65" spans="1:46">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
         <v>10377</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="1">
         <v>975</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>131</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>660</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="1">
         <v>671</v>
       </c>
-      <c r="K15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="K15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>50</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>53</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="1">
         <v>100000</v>
       </c>
-      <c r="Q15" s="6">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
         <v>3</v>
       </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <v>4</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="1">
         <v>10000</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
         <v>100</v>
       </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
         <v>1948</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="1">
         <v>7</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="1">
         <v>1956</v>
       </c>
-      <c r="AE15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF15" s="6">
+      <c r="AE15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF15" s="1">
         <v>2</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="1">
         <v>3101</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="1">
         <v>6</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="1">
         <v>3110</v>
       </c>
-      <c r="AJ15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="6">
+      <c r="AJ15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
         <v>14771</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="1">
         <v>6</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="1">
         <v>14780</v>
       </c>
-      <c r="AO15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="6">
+      <c r="AO15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>285</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR15" s="1">
         <v>4</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS15" s="1">
         <v>291</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="16" ht="15.65" spans="1:46">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6">
         <f t="shared" ref="B16:AT16" si="1">MIN(B11:B15)</f>
         <v>14</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="1"/>
         <v>10358</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>963</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>651</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <f t="shared" si="1"/>
         <v>1876</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="6">
         <f t="shared" si="1"/>
         <v>1885</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="6">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="6">
         <f t="shared" si="1"/>
         <v>3036</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AI16" s="6">
         <f t="shared" si="1"/>
         <v>3046</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="6">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AK16" s="7">
+      <c r="AK16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AL16" s="6">
         <f t="shared" si="1"/>
         <v>14764</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AM16" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AN16" s="6">
         <f t="shared" si="1"/>
         <v>14773</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AO16" s="6">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AP16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ16" s="6">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AR16" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AS16" s="7">
+      <c r="AS16" s="6">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AT16" s="6">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
@@ -3953,913 +3962,1327 @@
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>190</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>30862</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="1">
         <v>2772</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>204</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>9</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="1">
         <v>653</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="1">
         <v>42</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="1">
         <v>702</v>
       </c>
-      <c r="K17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="1">
         <v>6</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="1">
         <v>46</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="1">
         <v>55</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="1">
         <v>100000</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="1">
         <v>5</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="1">
         <v>3</v>
       </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
         <v>9</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="1">
         <v>10000</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="1">
         <v>5</v>
       </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <v>6</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="1">
         <v>100</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="1">
         <v>5</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="1">
         <v>781</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="1">
         <v>27</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="1">
         <v>814</v>
       </c>
-      <c r="AE17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF17" s="6">
+      <c r="AE17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF17" s="1">
         <v>6</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="1">
         <v>2802</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="1">
         <v>11</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="1">
         <v>2821</v>
       </c>
-      <c r="AJ17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK17" s="6">
+      <c r="AJ17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK17" s="1">
         <v>7</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="1">
         <v>743</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="1">
         <v>18</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="1">
         <v>769</v>
       </c>
-      <c r="AO17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP17" s="6">
+      <c r="AO17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP17" s="1">
         <v>6</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AQ17" s="1">
         <v>429</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AR17" s="1">
         <v>8</v>
       </c>
-      <c r="AS17" s="6">
+      <c r="AS17" s="1">
         <v>444</v>
       </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="18" ht="15.65" spans="1:46">
       <c r="A18" s="5"/>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>54</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
         <v>30234</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="1">
         <v>2723</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>197</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="1">
         <v>8</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="1">
         <v>662</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="1">
         <v>14</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="1">
         <v>682</v>
       </c>
-      <c r="K18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="K18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="1">
         <v>46</v>
       </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6">
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
         <v>52</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="1">
         <v>100000</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="1">
         <v>5</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="1">
         <v>3</v>
       </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
         <v>8</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="1">
         <v>10000</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="1">
         <v>5</v>
       </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
         <v>6</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="1">
         <v>100</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="1">
         <v>5</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="1">
         <v>746</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="1">
         <v>18</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="1">
         <v>771</v>
       </c>
-      <c r="AE18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF18" s="6">
+      <c r="AE18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF18" s="1">
         <v>5</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="1">
         <v>2802</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="1">
         <v>11</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AI18" s="1">
         <v>2819</v>
       </c>
-      <c r="AJ18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK18" s="6">
+      <c r="AJ18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK18" s="1">
         <v>6</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="1">
         <v>769</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="1">
         <v>12</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="1">
         <v>788</v>
       </c>
-      <c r="AO18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP18" s="6">
+      <c r="AO18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP18" s="1">
         <v>7</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AQ18" s="1">
         <v>440</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="AR18" s="1">
         <v>10</v>
       </c>
-      <c r="AS18" s="6">
+      <c r="AS18" s="1">
         <v>458</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT18" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="19" ht="15.65" spans="1:46">
       <c r="A19" s="5"/>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>57</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
         <v>30065</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="1">
         <v>2743</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>197</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="1">
         <v>9</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="1">
         <v>655</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="1">
         <v>13</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="1">
         <v>676</v>
       </c>
-      <c r="K19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L19" s="1">
         <v>5</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="1">
         <v>46</v>
       </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6">
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>54</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="1">
         <v>100000</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="1">
         <v>5</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="1">
         <v>3</v>
       </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
         <v>9</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="1">
         <v>10000</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="1">
         <v>5</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
         <v>6</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="1">
         <v>100</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="1">
         <v>5</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="1">
         <v>744</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="1">
         <v>12</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="1">
         <v>761</v>
       </c>
-      <c r="AE19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF19" s="6">
+      <c r="AE19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF19" s="1">
         <v>5</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="1">
         <v>2802</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="1">
         <v>14</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="1">
         <v>2822</v>
       </c>
-      <c r="AJ19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK19" s="6">
+      <c r="AJ19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK19" s="1">
         <v>6</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="1">
         <v>770</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="1">
         <v>12</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="1">
         <v>789</v>
       </c>
-      <c r="AO19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP19" s="6">
+      <c r="AO19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP19" s="1">
         <v>7</v>
       </c>
-      <c r="AQ19" s="6">
+      <c r="AQ19" s="1">
         <v>425</v>
       </c>
-      <c r="AR19" s="6">
+      <c r="AR19" s="1">
         <v>8</v>
       </c>
-      <c r="AS19" s="6">
+      <c r="AS19" s="1">
         <v>441</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AT19" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="20" ht="15.65" spans="1:46">
       <c r="A20" s="5"/>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>117</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
         <v>30806</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="1">
         <v>2755</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>183</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="1">
         <v>651</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="1">
         <v>12</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="1">
         <v>670</v>
       </c>
-      <c r="K20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L20" s="1">
         <v>5</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="1">
         <v>46</v>
       </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>53</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="1">
         <v>100000</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="1">
         <v>5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="1">
         <v>3</v>
       </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <v>8</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="1">
         <v>10000</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="1">
         <v>4</v>
       </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
         <v>5</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="1">
         <v>100</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="1">
         <v>5</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="1">
         <v>746</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="1">
         <v>18</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="1">
         <v>769</v>
       </c>
-      <c r="AE20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF20" s="6">
+      <c r="AE20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF20" s="1">
         <v>5</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="1">
         <v>2799</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH20" s="1">
         <v>19</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="1">
         <v>2823</v>
       </c>
-      <c r="AJ20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK20" s="6">
+      <c r="AJ20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK20" s="1">
         <v>6</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="1">
         <v>809</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="1">
         <v>12</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="1">
         <v>828</v>
       </c>
-      <c r="AO20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP20" s="6">
+      <c r="AO20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP20" s="1">
         <v>5</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ20" s="1">
         <v>441</v>
       </c>
-      <c r="AR20" s="6">
+      <c r="AR20" s="1">
         <v>13</v>
       </c>
-      <c r="AS20" s="6">
+      <c r="AS20" s="1">
         <v>460</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AT20" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" ht="15.65" spans="1:46">
       <c r="A21" s="5"/>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>56</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>29892</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="1">
         <v>2757</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="1">
         <v>200</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="1">
         <v>9</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="1">
         <v>672</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="1">
         <v>15</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="1">
         <v>694</v>
       </c>
-      <c r="K21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L21" s="1">
         <v>6</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="1">
         <v>48</v>
       </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>56</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="1">
         <v>100000</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="1">
         <v>5</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="1">
         <v>3</v>
       </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
         <v>9</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="1">
         <v>10000</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="1">
         <v>4</v>
       </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
         <v>5</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="1">
         <v>100</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="1">
         <v>4</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="1">
         <v>757</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="1">
         <v>18</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="1">
         <v>781</v>
       </c>
-      <c r="AE21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF21" s="6">
+      <c r="AE21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AF21" s="1">
         <v>6</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AG21" s="1">
         <v>2800</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AH21" s="1">
         <v>17</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AI21" s="1">
         <v>2824</v>
       </c>
-      <c r="AJ21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK21" s="6">
+      <c r="AJ21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AK21" s="1">
         <v>6</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="1">
         <v>770</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="1">
         <v>793</v>
       </c>
-      <c r="AO21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP21" s="6">
+      <c r="AO21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="AP21" s="1">
         <v>6</v>
       </c>
-      <c r="AQ21" s="6">
+      <c r="AQ21" s="1">
         <v>424</v>
       </c>
-      <c r="AR21" s="6">
+      <c r="AR21" s="1">
         <v>8</v>
       </c>
-      <c r="AS21" s="6">
+      <c r="AS21" s="1">
         <v>439</v>
       </c>
-      <c r="AT21" s="6">
+      <c r="AT21" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="22" ht="15.65" spans="1:46">
       <c r="A22" s="5"/>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f t="shared" ref="B22:AT22" si="2">MIN(B17:B21)</f>
         <v>54</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="2"/>
         <v>29892</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>651</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f t="shared" si="2"/>
         <v>670</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="6">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="6">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="6">
         <f t="shared" si="2"/>
         <v>761</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="6">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="6">
         <f t="shared" si="2"/>
         <v>2799</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22" s="6">
         <f t="shared" si="2"/>
         <v>2819</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="6">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AK22" s="7">
+      <c r="AK22" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="AL22" s="6">
         <f t="shared" si="2"/>
         <v>743</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AM22" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AN22" s="6">
         <f t="shared" si="2"/>
         <v>769</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="6">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AP22" s="7">
+      <c r="AP22" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AQ22" s="6">
         <f t="shared" si="2"/>
         <v>424</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AR22" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AS22" s="7">
+      <c r="AS22" s="6">
         <f t="shared" si="2"/>
         <v>439</v>
       </c>
-      <c r="AT22" s="7">
+      <c r="AT22" s="6">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" ht="15.65" spans="1:46">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6">
+        <f t="shared" ref="B28:AT28" si="3">MIN(B23:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="9" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="D32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="10">
+        <f>C7</f>
+        <v>22130</v>
+      </c>
+      <c r="C33" s="10">
+        <f>D7</f>
+        <v>1699</v>
+      </c>
+      <c r="D33" s="10">
+        <f>E7</f>
+        <v>165</v>
+      </c>
+      <c r="E33" s="10">
+        <f>F7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10">
+        <f>C16</f>
+        <v>10358</v>
+      </c>
+      <c r="C34" s="10">
+        <f>D16</f>
+        <v>963</v>
+      </c>
+      <c r="D34" s="10">
+        <f>E16</f>
+        <v>131</v>
+      </c>
+      <c r="E34" s="10">
+        <f>F16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="10">
+        <f>C22</f>
+        <v>29892</v>
+      </c>
+      <c r="C35" s="10">
+        <f>D22</f>
+        <v>2723</v>
+      </c>
+      <c r="D35" s="10">
+        <f>E22</f>
+        <v>183</v>
+      </c>
+      <c r="E35" s="10">
+        <f>F22</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11">
+        <f>C28</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="10">
+        <f>H7</f>
+        <v>571</v>
+      </c>
+      <c r="C39" s="10">
+        <f>M7</f>
+        <v>45</v>
+      </c>
+      <c r="D39" s="10">
+        <f>R7</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="10">
+        <f>W7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="10">
+        <f>H16</f>
+        <v>640</v>
+      </c>
+      <c r="C40" s="10">
+        <f>M16</f>
+        <v>42</v>
+      </c>
+      <c r="D40" s="10">
+        <f>R16</f>
+        <v>3</v>
+      </c>
+      <c r="E40" s="10">
+        <f>W16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="10">
+        <f>H22</f>
+        <v>651</v>
+      </c>
+      <c r="C41" s="10">
+        <f>M22</f>
+        <v>46</v>
+      </c>
+      <c r="D41" s="10">
+        <f>R22</f>
+        <v>3</v>
+      </c>
+      <c r="E41" s="10">
+        <f>W22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="11">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <f>M28</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <f>R28</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <f>W28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="10">
-        <f>C7</f>
-        <v>22130</v>
+        <f>AB7</f>
+        <v>1723</v>
       </c>
       <c r="C46" s="10">
-        <f>D7</f>
-        <v>1699</v>
+        <f>AG7</f>
+        <v>980</v>
       </c>
       <c r="D46" s="10">
-        <f>E7</f>
-        <v>165</v>
-      </c>
-      <c r="E46" s="10">
-        <f>F7</f>
-        <v>3</v>
+        <f>AL7</f>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4867,246 +5290,106 @@
         <v>47</v>
       </c>
       <c r="B47" s="10">
-        <f>C16</f>
-        <v>10358</v>
-      </c>
-      <c r="C47" s="10">
-        <f>D16</f>
-        <v>963</v>
+        <f>AB16</f>
+        <v>1876</v>
+      </c>
+      <c r="C47" s="12">
+        <f>AG16</f>
+        <v>3036</v>
       </c>
       <c r="D47" s="10">
-        <f>E16</f>
-        <v>131</v>
-      </c>
-      <c r="E47" s="10">
-        <f>F16</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f>AL16</f>
+        <v>14764</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="10">
-        <f>C22</f>
-        <v>29892</v>
+        <f>AB22</f>
+        <v>744</v>
       </c>
       <c r="C48" s="10">
-        <f>D22</f>
-        <v>2723</v>
+        <f>AG22</f>
+        <v>2799</v>
       </c>
       <c r="D48" s="10">
-        <f>E22</f>
-        <v>183</v>
-      </c>
-      <c r="E48" s="10">
-        <f>F22</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f>AL22</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="11">
+        <f>AB28</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <f>AG28</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <f>AL28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="10">
-        <f>H7</f>
-        <v>571</v>
-      </c>
-      <c r="C52" s="10">
-        <f>M7</f>
-        <v>45</v>
-      </c>
-      <c r="D52" s="10">
-        <f>R7</f>
-        <v>3</v>
-      </c>
-      <c r="E52" s="10">
-        <f>W7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f>AQ7</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="10">
-        <f>H16</f>
-        <v>640</v>
-      </c>
-      <c r="C53" s="10">
-        <f>M16</f>
-        <v>42</v>
-      </c>
-      <c r="D53" s="10">
-        <f>R16</f>
-        <v>3</v>
-      </c>
-      <c r="E53" s="10">
-        <f>W16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f>AQ16</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="10">
-        <f>H22</f>
-        <v>651</v>
-      </c>
-      <c r="C54" s="10">
-        <f>M22</f>
-        <v>46</v>
-      </c>
-      <c r="D54" s="10">
-        <f>R22</f>
-        <v>3</v>
-      </c>
-      <c r="E54" s="10">
-        <f>W22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="10">
-        <f>AB7</f>
-        <v>1723</v>
-      </c>
-      <c r="C59" s="10">
-        <f>AG7</f>
-        <v>980</v>
-      </c>
-      <c r="D59" s="10">
-        <f>AL7</f>
-        <v>597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="10">
-        <f>AB16</f>
-        <v>1876</v>
-      </c>
-      <c r="C60" s="11">
-        <f>AG16</f>
-        <v>3036</v>
-      </c>
-      <c r="D60" s="10">
-        <f>AL16</f>
-        <v>14764</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="10">
-        <f>AB22</f>
-        <v>744</v>
-      </c>
-      <c r="C61" s="10">
-        <f>AG22</f>
-        <v>2799</v>
-      </c>
-      <c r="D61" s="10">
-        <f>AL22</f>
-        <v>743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="10">
-        <f>AQ7</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="10">
-        <f>AQ16</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="10">
         <f>AQ22</f>
         <v>424</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11">
+        <f>AQ28</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5131,48 +5414,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -5216,7 +5499,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -5260,7 +5543,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -5304,7 +5587,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -5348,7 +5631,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5356,10 +5639,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5367,10 +5650,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5670,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -5397,48 +5680,48 @@
   <sheetData>
     <row r="1" ht="15.65" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:14">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -5482,7 +5765,7 @@
     </row>
     <row r="3" ht="15.65" spans="1:14">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -5526,7 +5809,7 @@
     </row>
     <row r="4" ht="15.65" spans="1:14">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -5570,7 +5853,7 @@
     </row>
     <row r="5" ht="15.65" spans="1:14">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -5614,7 +5897,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5622,10 +5905,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5633,10 +5916,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/db/DB性能测试结果.xlsx
+++ b/db/DB性能测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29729" windowHeight="13691"/>
+    <workbookView windowHeight="21588"/>
   </bookViews>
   <sheets>
     <sheet name="单连接" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>DB</t>
   </si>
@@ -159,36 +159,39 @@
     <t>mysql</t>
   </si>
   <si>
+    <t>mariadb(Product 表无连接字段索引)</t>
+  </si>
+  <si>
+    <t>mariadb(Product 表添加连接字段索引后)</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>TiDB</t>
+  </si>
+  <si>
+    <t>结果统计:</t>
+  </si>
+  <si>
+    <t>单表插入</t>
+  </si>
+  <si>
+    <t>100万耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>10万耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>1万耗时(毫秒)</t>
+  </si>
+  <si>
+    <t>1百耗时(毫秒)</t>
+  </si>
+  <si>
     <t>mariadb</t>
   </si>
   <si>
-    <t>mariadb1(Product 表添加连接字段索引后)</t>
-  </si>
-  <si>
-    <t>postgres</t>
-  </si>
-  <si>
-    <t>TiDB</t>
-  </si>
-  <si>
-    <t>结果统计:</t>
-  </si>
-  <si>
-    <t>单表插入</t>
-  </si>
-  <si>
-    <t>100万耗时(毫秒)</t>
-  </si>
-  <si>
-    <t>10万耗时(毫秒)</t>
-  </si>
-  <si>
-    <t>1万耗时(毫秒)</t>
-  </si>
-  <si>
-    <t>1百耗时(毫秒)</t>
-  </si>
-  <si>
     <t>单表全表查询</t>
   </si>
   <si>
@@ -216,7 +219,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>* mariadb内联查询如果连接字段上没有索引，那么会极慢(不支持hash连接)，加上索引后才能接近其他数据库的表现(但同时由于添加索引会稍微降低写入的性能)。</t>
+    <t>* mariadb内联查询如果连接字段上没有索引，那么100万连1万会极慢(不支持hash连接,大约700秒以上)，加上索引后才能接近其他数据库的表现(但同时由于添加索引会稍微降低写入的性能)。</t>
   </si>
   <si>
     <t>倒序排序</t>
@@ -264,10 +267,25 @@
     <t>标准偏差</t>
   </si>
   <si>
+    <t>SQL</t>
+  </si>
+  <si>
     <t>insert</t>
   </si>
   <si>
+    <t>insert into tb_warehouse(`warehouse_number`, `warehouse_name`) values(?, ?)</t>
+  </si>
+  <si>
+    <t>tidb</t>
+  </si>
+  <si>
     <t>joinselect</t>
+  </si>
+  <si>
+    <t>SELECT a.ord_number, a.ord_status, a.order_time, b.custom_number, b.custom_name FROM tb_order a inner join tb_custom b on(a.custom_number = b.custom_number) where a.ord_number = ?;</t>
+  </si>
+  <si>
+    <t>tb_custom表建有索引: `tb_custom_unique01` (`custom_number`)</t>
   </si>
   <si>
     <t>测试期间资源统计</t>
@@ -278,12 +296,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -306,9 +339,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,16 +375,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,75 +461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,14 +475,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,7 +521,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +647,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,157 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,8 +727,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,36 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -747,193 +821,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
@@ -942,34 +984,52 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,13 +1099,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>424180</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1063,7 +1123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="1523365"/>
+          <a:off x="662940" y="2318385"/>
           <a:ext cx="7615555" cy="5950585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1077,13 +1137,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>424180</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1101,7 +1161,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="7701915"/>
+          <a:off x="662940" y="8496935"/>
           <a:ext cx="7615555" cy="5949950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1115,13 +1175,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1139,7 +1199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="1522730"/>
+          <a:off x="8686165" y="2317750"/>
           <a:ext cx="7610475" cy="5950585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1153,13 +1213,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1177,8 +1237,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524240" y="7701280"/>
+          <a:off x="8685530" y="8496300"/>
           <a:ext cx="7611110" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="20_2m_3_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="14851380"/>
+          <a:ext cx="7613015" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="20_2m_1_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8682990" y="14851380"/>
+          <a:ext cx="7616825" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="20_2m_2_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="21207095"/>
+          <a:ext cx="7613015" cy="5949950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="20_2m_3_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8682990" y="21207095"/>
+          <a:ext cx="7616825" cy="5949950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,13 +1408,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1220,7 +1432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="7701915"/>
+          <a:off x="662940" y="8496935"/>
           <a:ext cx="7611110" cy="5951220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1234,13 +1446,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1258,7 +1470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="1523365"/>
+          <a:off x="662940" y="2318385"/>
           <a:ext cx="7611110" cy="5950585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1272,13 +1484,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,7 +1508,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8700135" y="1522730"/>
+          <a:off x="8815705" y="2317750"/>
           <a:ext cx="7612380" cy="5950585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1310,13 +1522,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1334,8 +1546,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8700135" y="7701280"/>
+          <a:off x="8815705" y="8496300"/>
           <a:ext cx="7612380" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="200_2m_1_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="14851380"/>
+          <a:ext cx="7614285" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="200_2m_2_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8813165" y="14851380"/>
+          <a:ext cx="7613650" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="200_2m_2_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="21207095"/>
+          <a:ext cx="7614285" cy="5949950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="200_2m_2_monitor_report"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8813165" y="21207095"/>
+          <a:ext cx="7613650" cy="5949950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,4058 +2013,4058 @@
     <col min="5" max="46" width="14.2155172413793" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="87" customHeight="true" spans="1:46">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" s="6" customFormat="true" ht="87" customHeight="true" spans="1:46">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" ht="15.65" spans="1:46">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>175</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>12942</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>1037</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>125</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>326</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="10">
         <v>30</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="10">
         <v>359</v>
       </c>
-      <c r="K2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="K2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10">
         <v>59</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="10">
         <v>5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="10">
         <v>67</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="10">
         <v>100000</v>
       </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="10">
+        <v>1</v>
+      </c>
+      <c r="R2" s="10">
         <v>2</v>
       </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
         <v>4</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="10">
         <v>10000</v>
       </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="6">
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="10">
         <v>100</v>
       </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
         <v>962</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="10">
         <v>26</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="10">
         <v>989</v>
       </c>
-      <c r="AE2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="6">
+      <c r="AE2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="10">
         <v>607</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="10">
         <v>32</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="10">
         <v>642</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK2" s="6">
+      <c r="AJ2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK2" s="10">
         <v>2</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AL2" s="10">
         <v>359</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AM2" s="10">
         <v>29</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="10">
         <v>391</v>
       </c>
-      <c r="AO2" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="6">
+      <c r="AO2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="10">
         <v>170</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AR2" s="10">
         <v>27</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AS2" s="10">
         <v>199</v>
       </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" ht="15.65" spans="1:46">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10">
         <v>78</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>12670</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>1068</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>120</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>346</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="10">
         <v>30</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="10">
         <v>377</v>
       </c>
-      <c r="K3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="K3" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
         <v>24</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="10">
         <v>3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="10">
         <v>29</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="10">
         <v>100000</v>
       </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
         <v>2</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
         <v>3</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="10">
         <v>10000</v>
       </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="V3" s="10">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="10">
         <v>100</v>
       </c>
-      <c r="AA3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="6">
+      <c r="AA3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="10">
         <v>957</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="10">
         <v>34</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="10">
         <v>993</v>
       </c>
-      <c r="AE3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="6">
+      <c r="AE3" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="10">
         <v>591</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="10">
         <v>28</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="10">
         <v>622</v>
       </c>
-      <c r="AJ3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="6">
+      <c r="AJ3" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="10">
         <v>362</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AM3" s="10">
         <v>29</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="10">
         <v>394</v>
       </c>
-      <c r="AO3" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="6">
+      <c r="AO3" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="10">
         <v>198</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="10">
         <v>26</v>
       </c>
-      <c r="AS3" s="6">
+      <c r="AS3" s="10">
         <v>226</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" ht="15.65" spans="1:46">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
         <v>77</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>12707</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>1053</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>126</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <v>342</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
         <v>31</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="10">
         <v>374</v>
       </c>
-      <c r="K4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="K4" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
         <v>28</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="10">
         <v>32</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="10">
         <v>100000</v>
       </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
         <v>3</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
         <v>4</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="10">
         <v>10000</v>
       </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="10">
         <v>100</v>
       </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
         <v>984</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="10">
         <v>26</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="10">
         <v>1012</v>
       </c>
-      <c r="AE4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="6">
+      <c r="AE4" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="10">
         <v>587</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="10">
         <v>28</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="10">
         <v>618</v>
       </c>
-      <c r="AJ4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="6">
+      <c r="AJ4" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="10">
         <v>328</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="10">
         <v>26</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="10">
         <v>355</v>
       </c>
-      <c r="AO4" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="6">
+      <c r="AO4" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="10">
         <v>215</v>
       </c>
-      <c r="AR4" s="6">
+      <c r="AR4" s="10">
         <v>33</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="10">
         <v>251</v>
       </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" ht="15.65" spans="1:46">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
         <v>81</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>12604</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>1075</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>126</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>318</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="10">
         <v>27</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="10">
         <v>347</v>
       </c>
-      <c r="K5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K5" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="10">
         <v>29</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="10">
         <v>100000</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
         <v>2</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
         <v>3</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="10">
         <v>10000</v>
       </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10">
         <v>100</v>
       </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
         <v>955</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="10">
         <v>26</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="10">
         <v>981</v>
       </c>
-      <c r="AE5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="6">
+      <c r="AE5" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="10">
         <v>611</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="10">
         <v>31</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="10">
         <v>644</v>
       </c>
-      <c r="AJ5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="6">
+      <c r="AJ5" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="10">
         <v>337</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="10">
         <v>26</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="10">
         <v>366</v>
       </c>
-      <c r="AO5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="6">
+      <c r="AO5" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="10">
         <v>207</v>
       </c>
-      <c r="AR5" s="6">
+      <c r="AR5" s="10">
         <v>28</v>
       </c>
-      <c r="AS5" s="6">
+      <c r="AS5" s="10">
         <v>236</v>
       </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" ht="15.65" spans="1:46">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
         <v>84</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>12763</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>1039</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>125</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>321</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>30</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="10">
         <v>352</v>
       </c>
-      <c r="K6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
         <v>57</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="10">
         <v>3</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="10">
         <v>61</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="10">
         <v>100000</v>
       </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10">
         <v>2</v>
       </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
         <v>3</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="10">
         <v>10000</v>
       </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="6">
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10">
         <v>100</v>
       </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
         <v>993</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="10">
         <v>27</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="10">
         <v>1021</v>
       </c>
-      <c r="AE6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="6">
+      <c r="AE6" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10">
         <v>535</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="10">
         <v>26</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="10">
         <v>563</v>
       </c>
-      <c r="AJ6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="6">
+      <c r="AJ6" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="10">
         <v>375</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="10">
         <v>32</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="10">
         <v>409</v>
       </c>
-      <c r="AO6" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="6">
+      <c r="AO6" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="10">
         <v>175</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="10">
         <v>26</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="10">
         <v>203</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="15.65" spans="1:46">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11">
         <f t="shared" ref="B7:AT7" si="0">MIN(B2:B6)</f>
         <v>77</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>12604</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="11">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="11">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="11">
         <f t="shared" si="0"/>
         <v>955</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="11">
         <f t="shared" si="0"/>
         <v>981</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="11">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="11">
         <f t="shared" si="0"/>
         <v>535</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="11">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="11">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="11">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="AM7" s="7">
+      <c r="AM7" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="11">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="11">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="11">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="AR7" s="7">
+      <c r="AR7" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AS7" s="11">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AT7" s="11">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="8" ht="15.65" spans="1:46">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>100</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <v>6542</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="13">
         <v>626</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="13">
         <v>73</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="13">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="13">
         <v>378</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="13">
         <v>12</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="13">
         <v>393</v>
       </c>
-      <c r="K8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
         <v>22</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <v>24</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="13">
         <v>100000</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
         <v>3</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="13">
         <v>10000</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="13">
         <v>100</v>
       </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
         <v>1011</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="13">
         <v>12</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="13">
         <v>1025</v>
       </c>
-      <c r="AE8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="1">
+      <c r="AE8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13">
         <v>704057</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="13">
         <v>4</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="13">
         <v>704064</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AJ8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="13">
         <v>7333</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="13">
         <v>6</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="13">
         <v>7342</v>
       </c>
-      <c r="AO8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="1">
+      <c r="AO8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AP8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="13">
         <v>189</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8" s="13">
         <v>8</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="13">
         <v>199</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="13">
         <v>1000000</v>
       </c>
     </row>
     <row r="9" ht="15.65" spans="1:46">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <v>6208</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="13">
         <v>569</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="13">
         <v>76</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
         <v>383</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="13">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="13">
         <v>391</v>
       </c>
-      <c r="K9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="K9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
         <v>23</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
         <v>25</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="13">
         <v>100000</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
         <v>3</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="13">
         <v>10000</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
         <v>100</v>
       </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
         <v>1019</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="13">
         <v>4</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="13">
         <v>1024</v>
       </c>
-      <c r="AE9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
+      <c r="AE9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
         <v>700704</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="13">
         <v>5</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="13">
         <v>700710</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AJ9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="13">
         <v>7470</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="13">
         <v>6</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="13">
         <v>7478</v>
       </c>
-      <c r="AO9" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="1">
+      <c r="AO9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AP9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="13">
         <v>151</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9" s="13">
         <v>3</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="13">
         <v>156</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="13">
         <v>1000000</v>
       </c>
     </row>
     <row r="10" ht="15.65" spans="1:46">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="13">
         <v>6042</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="13">
         <v>580</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="13">
         <v>62</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>365</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="13">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="13">
         <v>371</v>
       </c>
-      <c r="K10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="K10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <v>23</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
         <v>25</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="13">
         <v>100000</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
         <v>2</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="13">
         <v>10000</v>
       </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
         <v>100</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
         <v>989</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="13">
         <v>4</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="13">
         <v>995</v>
       </c>
-      <c r="AE10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
+      <c r="AE10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
         <v>701910</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="13">
         <v>6</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="13">
         <v>701918</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="1">
+      <c r="AJ10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="13">
         <v>7429</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10" s="13">
         <v>5</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="13">
         <v>7437</v>
       </c>
-      <c r="AO10" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
+      <c r="AO10" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="13">
         <v>147</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AR10" s="13">
         <v>3</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="13">
         <v>152</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10" s="13">
         <v>1000000</v>
       </c>
     </row>
     <row r="11" ht="15.65" spans="1:46">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>69</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <v>6232</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>574</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <v>103</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>384</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="10">
         <v>16</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="10">
         <v>402</v>
       </c>
-      <c r="K11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="K11" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
         <v>28</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="10">
         <v>3</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="10">
         <v>33</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="10">
         <v>100000</v>
       </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="Q11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
         <v>2</v>
       </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
         <v>4</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="10">
         <v>10000</v>
       </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="10">
         <v>100</v>
       </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
         <v>1046</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="10">
         <v>13</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="10">
         <v>1060</v>
       </c>
-      <c r="AE11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="6">
+      <c r="AE11" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="10">
         <v>1685</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="10">
         <v>6</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="10">
         <v>1693</v>
       </c>
-      <c r="AJ11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="6">
+      <c r="AJ11" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
         <v>7630</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AM11" s="10">
         <v>5</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="10">
         <v>7637</v>
       </c>
-      <c r="AO11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="6">
+      <c r="AO11" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="10">
         <v>152</v>
       </c>
-      <c r="AR11" s="6">
+      <c r="AR11" s="10">
         <v>3</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="10">
         <v>157</v>
       </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" ht="15.65" spans="1:46">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <v>5925</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <v>527</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>90</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <v>2</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>443</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="10">
         <v>453</v>
       </c>
-      <c r="K12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="K12" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
         <v>23</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
         <v>26</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="10">
         <v>100000</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
         <v>2</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="10">
         <v>10000</v>
       </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
         <v>100</v>
       </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
+      <c r="AA12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="10">
         <v>1064</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="10">
         <v>4</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="10">
         <v>1069</v>
       </c>
-      <c r="AE12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="6">
+      <c r="AE12" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="10">
         <v>1664</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="10">
         <v>4</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="10">
         <v>1670</v>
       </c>
-      <c r="AJ12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="6">
+      <c r="AJ12" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10">
         <v>7642</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM12" s="10">
         <v>6</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="10">
         <v>7649</v>
       </c>
-      <c r="AO12" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="6">
+      <c r="AO12" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="10">
         <v>155</v>
       </c>
-      <c r="AR12" s="6">
+      <c r="AR12" s="10">
         <v>3</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AS12" s="10">
         <v>159</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="13" ht="15.65" spans="1:46">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>5883</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <v>566</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>96</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>359</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="10">
         <v>5</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="10">
         <v>366</v>
       </c>
-      <c r="K13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="K13" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <v>22</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
         <v>24</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="10">
         <v>100000</v>
       </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
         <v>2</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="10">
         <v>10000</v>
       </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
         <v>100</v>
       </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
+      <c r="AA13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
         <v>1075</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="10">
         <v>4</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="10">
         <v>1081</v>
       </c>
-      <c r="AE13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
+      <c r="AE13" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="10">
         <v>1693</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="10">
         <v>7</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="10">
         <v>1701</v>
       </c>
-      <c r="AJ13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="6">
+      <c r="AJ13" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="10">
         <v>7671</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="10">
         <v>5</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="10">
         <v>7678</v>
       </c>
-      <c r="AO13" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="6">
+      <c r="AO13" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="10">
         <v>156</v>
       </c>
-      <c r="AR13" s="6">
+      <c r="AR13" s="10">
         <v>3</v>
       </c>
-      <c r="AS13" s="6">
+      <c r="AS13" s="10">
         <v>161</v>
       </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" ht="15.65" spans="1:46">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10">
         <v>5676</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="10">
         <v>553</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <v>89</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>378</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10">
         <v>8</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="10">
         <v>388</v>
       </c>
-      <c r="K14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="K14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
         <v>30</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <v>32</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="10">
         <v>100000</v>
       </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <v>2</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="10">
         <v>10000</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10">
         <v>100</v>
       </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AA14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10">
         <v>1062</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="10">
         <v>4</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="10">
         <v>1067</v>
       </c>
-      <c r="AE14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="6">
+      <c r="AE14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="10">
         <v>1675</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AH14" s="10">
         <v>5</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="10">
         <v>1681</v>
       </c>
-      <c r="AJ14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="6">
+      <c r="AJ14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="10">
         <v>7648</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="10">
         <v>6</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="10">
         <v>7656</v>
       </c>
-      <c r="AO14" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="6">
+      <c r="AO14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="10">
         <v>152</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AR14" s="10">
         <v>3</v>
       </c>
-      <c r="AS14" s="6">
+      <c r="AS14" s="10">
         <v>156</v>
       </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" ht="15.65" spans="1:46">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10">
         <v>50</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="10">
         <v>6492</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="10">
         <v>567</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
         <v>93</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>386</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10">
         <v>6</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="10">
         <v>393</v>
       </c>
-      <c r="K15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="K15" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
         <v>24</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
         <v>26</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="10">
         <v>100000</v>
       </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
         <v>2</v>
       </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
         <v>3</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="10">
         <v>10000</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="6">
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="10">
         <v>100</v>
       </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
+      <c r="AA15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10">
         <v>1084</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="10">
         <v>4</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="10">
         <v>1090</v>
       </c>
-      <c r="AE15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
+      <c r="AE15" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10">
         <v>1642</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="10">
         <v>6</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="10">
         <v>1649</v>
       </c>
-      <c r="AJ15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="6">
+      <c r="AJ15" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="10">
         <v>7642</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="10">
         <v>5</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="10">
         <v>7649</v>
       </c>
-      <c r="AO15" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="6">
+      <c r="AO15" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="10">
         <v>157</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR15" s="10">
         <v>3</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS15" s="10">
         <v>161</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="16" ht="15.65" spans="1:46">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11">
         <f t="shared" ref="B16:AT16" si="1">MIN(B11:B15)</f>
         <v>12</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="11">
         <f t="shared" si="1"/>
         <v>5676</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>527</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="11">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="11">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="11">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="11">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="11">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="11">
         <f t="shared" si="1"/>
         <v>1046</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="11">
         <f t="shared" si="1"/>
         <v>1060</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="11">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="11">
         <f t="shared" si="1"/>
         <v>1642</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AI16" s="11">
         <f t="shared" si="1"/>
         <v>1649</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="11">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AK16" s="7">
+      <c r="AK16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AL16" s="11">
         <f t="shared" si="1"/>
         <v>7630</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AM16" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AN16" s="11">
         <f t="shared" si="1"/>
         <v>7637</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AO16" s="11">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AP16" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AQ16" s="7">
+      <c r="AQ16" s="11">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AR16" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AS16" s="7">
+      <c r="AS16" s="11">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AT16" s="11">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="17" ht="15.65" spans="1:46">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>123</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <v>17842</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="10">
         <v>1613</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10">
         <v>109</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="10">
         <v>386</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10">
         <v>28</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="10">
         <v>419</v>
       </c>
-      <c r="K17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="10">
         <v>4</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="10">
         <v>26</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="10">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="10">
         <v>33</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="10">
         <v>100000</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="10">
         <v>4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="10">
         <v>3</v>
       </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
         <v>8</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="10">
         <v>10000</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="10">
         <v>3</v>
       </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
         <v>4</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="10">
         <v>100</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="10">
         <v>3</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AB17" s="10">
         <v>562</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AC17" s="10">
         <v>18</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="10">
         <v>585</v>
       </c>
-      <c r="AE17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF17" s="6">
+      <c r="AE17" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF17" s="10">
         <v>4</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="10">
         <v>401</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="10">
         <v>8</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AI17" s="10">
         <v>414</v>
       </c>
-      <c r="AJ17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK17" s="6">
+      <c r="AJ17" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK17" s="10">
         <v>3</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="10">
         <v>433</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="10">
         <v>8</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="10">
         <v>445</v>
       </c>
-      <c r="AO17" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP17" s="6">
+      <c r="AO17" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP17" s="10">
         <v>4</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AQ17" s="10">
         <v>245</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AR17" s="10">
         <v>6</v>
       </c>
-      <c r="AS17" s="6">
+      <c r="AS17" s="10">
         <v>256</v>
       </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="18" ht="15.65" spans="1:46">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
         <v>37</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <v>17438</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10">
         <v>1530</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10">
         <v>112</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="10">
         <v>363</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="10">
         <v>9</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="10">
         <v>375</v>
       </c>
-      <c r="K18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="K18" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L18" s="10">
         <v>3</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="10">
         <v>25</v>
       </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
         <v>29</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="10">
         <v>100000</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="10">
         <v>3</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="10">
         <v>2</v>
       </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
         <v>5</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="10">
         <v>10000</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="10">
         <v>3</v>
       </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
         <v>3</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="10">
         <v>100</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="10">
         <v>2</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="10">
         <v>535</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="10">
         <v>8</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="10">
         <v>546</v>
       </c>
-      <c r="AE18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF18" s="6">
+      <c r="AE18" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF18" s="10">
         <v>3</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="10">
         <v>402</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="10">
         <v>10</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AI18" s="10">
         <v>416</v>
       </c>
-      <c r="AJ18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK18" s="6">
+      <c r="AJ18" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK18" s="10">
         <v>3</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="10">
         <v>455</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="10">
         <v>11</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="10">
         <v>470</v>
       </c>
-      <c r="AO18" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP18" s="6">
+      <c r="AO18" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP18" s="10">
         <v>4</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AQ18" s="10">
         <v>242</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="AR18" s="10">
         <v>5</v>
       </c>
-      <c r="AS18" s="6">
+      <c r="AS18" s="10">
         <v>253</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AT18" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="19" ht="15.65" spans="1:46">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
         <v>38</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10">
         <v>17256</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10">
         <v>1575</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <v>121</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="10">
         <v>4</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="10">
         <v>3</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="10">
         <v>368</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="10">
         <v>11</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="10">
         <v>384</v>
       </c>
-      <c r="K19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L19" s="10">
         <v>4</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="10">
         <v>27</v>
       </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6">
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
         <v>33</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="10">
         <v>100000</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="10">
         <v>3</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="10">
         <v>2</v>
       </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
         <v>5</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="10">
         <v>10000</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="10">
         <v>2</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
         <v>3</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="10">
         <v>100</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="10">
         <v>2</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="10">
         <v>556</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="10">
         <v>8</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="10">
         <v>568</v>
       </c>
-      <c r="AE19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF19" s="6">
+      <c r="AE19" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF19" s="10">
         <v>3</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="10">
         <v>415</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="AH19" s="10">
         <v>8</v>
       </c>
-      <c r="AI19" s="6">
+      <c r="AI19" s="10">
         <v>427</v>
       </c>
-      <c r="AJ19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK19" s="6">
+      <c r="AJ19" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK19" s="10">
         <v>3</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="10">
         <v>438</v>
       </c>
-      <c r="AM19" s="6">
+      <c r="AM19" s="10">
         <v>8</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="10">
         <v>450</v>
       </c>
-      <c r="AO19" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP19" s="6">
+      <c r="AO19" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP19" s="10">
         <v>3</v>
       </c>
-      <c r="AQ19" s="6">
+      <c r="AQ19" s="10">
         <v>248</v>
       </c>
-      <c r="AR19" s="6">
+      <c r="AR19" s="10">
         <v>6</v>
       </c>
-      <c r="AS19" s="6">
+      <c r="AS19" s="10">
         <v>257</v>
       </c>
-      <c r="AT19" s="6">
+      <c r="AT19" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="20" ht="15.65" spans="1:46">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10">
         <v>38</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <v>17153</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <v>1561</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <v>113</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="10">
         <v>353</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
         <v>9</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="10">
         <v>367</v>
       </c>
-      <c r="K20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L20" s="10">
         <v>3</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="10">
         <v>25</v>
       </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
         <v>30</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="10">
         <v>100000</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="10">
         <v>3</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="10">
         <v>2</v>
       </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <v>5</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="10">
         <v>10000</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="10">
         <v>3</v>
       </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="10">
         <v>3</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="10">
         <v>100</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="10">
         <v>2</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="10">
         <v>544</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="10">
         <v>8</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="10">
         <v>556</v>
       </c>
-      <c r="AE20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF20" s="6">
+      <c r="AE20" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF20" s="10">
         <v>3</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="10">
         <v>395</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH20" s="10">
         <v>8</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI20" s="10">
         <v>407</v>
       </c>
-      <c r="AJ20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK20" s="6">
+      <c r="AJ20" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK20" s="10">
         <v>4</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="10">
         <v>387</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM20" s="10">
         <v>8</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="10">
         <v>399</v>
       </c>
-      <c r="AO20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP20" s="6">
+      <c r="AO20" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP20" s="10">
         <v>4</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ20" s="10">
         <v>320</v>
       </c>
-      <c r="AR20" s="6">
+      <c r="AR20" s="10">
         <v>9</v>
       </c>
-      <c r="AS20" s="6">
+      <c r="AS20" s="10">
         <v>334</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AT20" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" ht="15.65" spans="1:46">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
         <v>41</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10">
         <v>17207</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="10">
         <v>1625</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <v>106</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10">
         <v>3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="10">
         <v>375</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="10">
         <v>15</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="10">
         <v>394</v>
       </c>
-      <c r="K21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L21" s="10">
         <v>3</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="10">
         <v>28</v>
       </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
         <v>33</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="10">
         <v>100000</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="10">
         <v>3</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="10">
         <v>2</v>
       </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
         <v>5</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="10">
         <v>10000</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="10">
         <v>3</v>
       </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
         <v>3</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="10">
         <v>100</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="10">
         <v>2</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="10">
         <v>538</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AC21" s="10">
         <v>8</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="10">
         <v>550</v>
       </c>
-      <c r="AE21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF21" s="6">
+      <c r="AE21" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF21" s="10">
         <v>3</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AG21" s="10">
         <v>408</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AH21" s="10">
         <v>9</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AI21" s="10">
         <v>420</v>
       </c>
-      <c r="AJ21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK21" s="6">
+      <c r="AJ21" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK21" s="10">
         <v>3</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="10">
         <v>444</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="10">
         <v>11</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="10">
         <v>459</v>
       </c>
-      <c r="AO21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP21" s="6">
+      <c r="AO21" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP21" s="10">
         <v>3</v>
       </c>
-      <c r="AQ21" s="6">
+      <c r="AQ21" s="10">
         <v>251</v>
       </c>
-      <c r="AR21" s="6">
+      <c r="AR21" s="10">
         <v>6</v>
       </c>
-      <c r="AS21" s="6">
+      <c r="AS21" s="10">
         <v>261</v>
       </c>
-      <c r="AT21" s="6">
+      <c r="AT21" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="22" ht="15.65" spans="1:46">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11">
         <f t="shared" ref="B22:AT22" si="2">MIN(B17:B21)</f>
         <v>37</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <f t="shared" si="2"/>
         <v>17153</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11">
         <f t="shared" si="2"/>
         <v>1530</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="11">
         <f t="shared" si="2"/>
         <v>353</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="11">
         <f t="shared" si="2"/>
         <v>367</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="11">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="11">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="11">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="11">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="11">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="11">
         <f t="shared" si="2"/>
         <v>535</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="11">
         <f t="shared" si="2"/>
         <v>546</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="11">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="11">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22" s="11">
         <f t="shared" si="2"/>
         <v>407</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="11">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AK22" s="7">
+      <c r="AK22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="AL22" s="11">
         <f t="shared" si="2"/>
         <v>387</v>
       </c>
-      <c r="AM22" s="7">
+      <c r="AM22" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AN22" s="11">
         <f t="shared" si="2"/>
         <v>399</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AO22" s="11">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="AP22" s="7">
+      <c r="AP22" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AQ22" s="11">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="AR22" s="7">
+      <c r="AR22" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AS22" s="7">
+      <c r="AS22" s="11">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="AT22" s="7">
+      <c r="AT22" s="11">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="23" ht="15.65" spans="1:46">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>557</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="10">
         <v>26693</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="10">
         <v>2136</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="10">
         <v>156</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>528</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="10">
         <v>25</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="10">
         <v>555</v>
       </c>
-      <c r="K23" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="K23" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
         <v>50</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="10">
         <v>3</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="10">
         <v>55</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="10">
         <v>100000</v>
       </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
         <v>9</v>
       </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
         <v>11</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="10">
         <v>10000</v>
       </c>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6">
-        <v>1</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
+      <c r="V23" s="10">
+        <v>1</v>
+      </c>
+      <c r="W23" s="10">
+        <v>1</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
         <v>2</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Z23" s="10">
         <v>100</v>
       </c>
-      <c r="AA23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="6">
+      <c r="AA23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="10">
         <v>457</v>
       </c>
-      <c r="AC23" s="6">
+      <c r="AC23" s="10">
         <v>35</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AD23" s="10">
         <v>494</v>
       </c>
-      <c r="AE23" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="6">
+      <c r="AE23" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="10">
         <v>520</v>
       </c>
-      <c r="AH23" s="6">
+      <c r="AH23" s="10">
         <v>31</v>
       </c>
-      <c r="AI23" s="6">
+      <c r="AI23" s="10">
         <v>553</v>
       </c>
-      <c r="AJ23" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="6">
+      <c r="AJ23" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="10">
         <v>451</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AM23" s="10">
         <v>27</v>
       </c>
-      <c r="AN23" s="6">
+      <c r="AN23" s="10">
         <v>480</v>
       </c>
-      <c r="AO23" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="6">
+      <c r="AO23" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="10">
         <v>795</v>
       </c>
-      <c r="AR23" s="6">
+      <c r="AR23" s="10">
         <v>26</v>
       </c>
-      <c r="AS23" s="6">
+      <c r="AS23" s="10">
         <v>822</v>
       </c>
-      <c r="AT23" s="6">
+      <c r="AT23" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" ht="15.65" spans="1:46">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10">
         <v>335</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10">
         <v>25546</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="10">
         <v>2075</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="10">
         <v>153</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="10">
         <v>6</v>
       </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
         <v>581</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="10">
         <v>26</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="10">
         <v>609</v>
       </c>
-      <c r="K24" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="K24" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
         <v>84</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="10">
         <v>2</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="10">
         <v>88</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="10">
         <v>100000</v>
       </c>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="Q24" s="10">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
         <v>11</v>
       </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <v>12</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="10">
         <v>10000</v>
       </c>
-      <c r="V24" s="6">
-        <v>1</v>
-      </c>
-      <c r="W24" s="6">
-        <v>1</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
+      <c r="V24" s="10">
+        <v>1</v>
+      </c>
+      <c r="W24" s="10">
+        <v>1</v>
+      </c>
+      <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
         <v>2</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z24" s="10">
         <v>100</v>
       </c>
-      <c r="AA24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="6">
+      <c r="AA24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="10">
         <v>485</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="10">
         <v>26</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD24" s="10">
         <v>512</v>
       </c>
-      <c r="AE24" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="6">
+      <c r="AE24" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="10">
         <v>431</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AH24" s="10">
         <v>37</v>
       </c>
-      <c r="AI24" s="6">
+      <c r="AI24" s="10">
         <v>471</v>
       </c>
-      <c r="AJ24" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="6">
+      <c r="AJ24" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="10">
         <v>504</v>
       </c>
-      <c r="AM24" s="6">
+      <c r="AM24" s="10">
         <v>27</v>
       </c>
-      <c r="AN24" s="6">
+      <c r="AN24" s="10">
         <v>533</v>
       </c>
-      <c r="AO24" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="6">
+      <c r="AO24" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="10">
         <v>706</v>
       </c>
-      <c r="AR24" s="6">
+      <c r="AR24" s="10">
         <v>24</v>
       </c>
-      <c r="AS24" s="6">
+      <c r="AS24" s="10">
         <v>732</v>
       </c>
-      <c r="AT24" s="6">
+      <c r="AT24" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="25" ht="15.65" spans="1:46">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10">
         <v>335</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="10">
         <v>25837</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="10">
         <v>2062</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="10">
         <v>146</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="10">
         <v>6</v>
       </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
         <v>517</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="10">
         <v>26</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="10">
         <v>545</v>
       </c>
-      <c r="K25" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="K25" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
         <v>69</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="10">
         <v>2</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="10">
         <v>73</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="10">
         <v>100000</v>
       </c>
-      <c r="Q25" s="6">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
         <v>10</v>
       </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
         <v>12</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="10">
         <v>10000</v>
       </c>
-      <c r="V25" s="6">
-        <v>1</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
         <v>2</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="10">
         <v>100</v>
       </c>
-      <c r="AA25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="6">
+      <c r="AA25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="10">
         <v>529</v>
       </c>
-      <c r="AC25" s="6">
+      <c r="AC25" s="10">
         <v>36</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AD25" s="10">
         <v>566</v>
       </c>
-      <c r="AE25" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="6">
+      <c r="AE25" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="10">
         <v>489</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AH25" s="10">
         <v>28</v>
       </c>
-      <c r="AI25" s="6">
+      <c r="AI25" s="10">
         <v>519</v>
       </c>
-      <c r="AJ25" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="6">
+      <c r="AJ25" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="10">
         <v>499</v>
       </c>
-      <c r="AM25" s="6">
+      <c r="AM25" s="10">
         <v>30</v>
       </c>
-      <c r="AN25" s="6">
+      <c r="AN25" s="10">
         <v>531</v>
       </c>
-      <c r="AO25" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="6">
+      <c r="AO25" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="10">
         <v>780</v>
       </c>
-      <c r="AR25" s="6">
+      <c r="AR25" s="10">
         <v>25</v>
       </c>
-      <c r="AS25" s="6">
+      <c r="AS25" s="10">
         <v>807</v>
       </c>
-      <c r="AT25" s="6">
+      <c r="AT25" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="26" ht="15.65" spans="1:46">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10">
         <v>337</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="10">
         <v>25609</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="10">
         <v>2133</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="10">
         <v>148</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="10">
         <v>7</v>
       </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
         <v>564</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="10">
         <v>26</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="10">
         <v>592</v>
       </c>
-      <c r="K26" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="K26" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10">
         <v>71</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="10">
         <v>2</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="10">
         <v>75</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="10">
         <v>100000</v>
       </c>
-      <c r="Q26" s="6">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6">
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
         <v>10</v>
       </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
         <v>12</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="10">
         <v>10000</v>
       </c>
-      <c r="V26" s="6">
-        <v>1</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10">
         <v>2</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="10">
         <v>100</v>
       </c>
-      <c r="AA26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="6">
+      <c r="AA26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="10">
         <v>482</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="10">
         <v>26</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="10">
         <v>509</v>
       </c>
-      <c r="AE26" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="6">
+      <c r="AE26" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="10">
         <v>433</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AH26" s="10">
         <v>27</v>
       </c>
-      <c r="AI26" s="6">
+      <c r="AI26" s="10">
         <v>461</v>
       </c>
-      <c r="AJ26" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="6">
+      <c r="AJ26" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="10">
         <v>524</v>
       </c>
-      <c r="AM26" s="6">
+      <c r="AM26" s="10">
         <v>30</v>
       </c>
-      <c r="AN26" s="6">
+      <c r="AN26" s="10">
         <v>556</v>
       </c>
-      <c r="AO26" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="6">
+      <c r="AO26" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="10">
         <v>720</v>
       </c>
-      <c r="AR26" s="6">
+      <c r="AR26" s="10">
         <v>27</v>
       </c>
-      <c r="AS26" s="6">
+      <c r="AS26" s="10">
         <v>748</v>
       </c>
-      <c r="AT26" s="6">
+      <c r="AT26" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="27" ht="15.65" spans="1:46">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10">
         <v>340</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="10">
         <v>26208</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="10">
         <v>2156</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="10">
         <v>156</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="10">
         <v>5</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
         <v>519</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="10">
         <v>26</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="10">
         <v>547</v>
       </c>
-      <c r="K27" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="K27" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
         <v>74</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="10">
         <v>3</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="10">
         <v>79</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="10">
         <v>100000</v>
       </c>
-      <c r="Q27" s="6">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="Q27" s="10">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
         <v>10</v>
       </c>
-      <c r="S27" s="6">
-        <v>0</v>
-      </c>
-      <c r="T27" s="6">
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
         <v>13</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="10">
         <v>10000</v>
       </c>
-      <c r="V27" s="6">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
+      <c r="V27" s="10">
+        <v>1</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10">
         <v>2</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="Z27" s="10">
         <v>100</v>
       </c>
-      <c r="AA27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="6">
+      <c r="AA27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="10">
         <v>546</v>
       </c>
-      <c r="AC27" s="6">
+      <c r="AC27" s="10">
         <v>32</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AD27" s="10">
         <v>580</v>
       </c>
-      <c r="AE27" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AF27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="6">
+      <c r="AE27" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="10">
         <v>537</v>
       </c>
-      <c r="AH27" s="6">
+      <c r="AH27" s="10">
         <v>31</v>
       </c>
-      <c r="AI27" s="6">
+      <c r="AI27" s="10">
         <v>570</v>
       </c>
-      <c r="AJ27" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AK27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="6">
+      <c r="AJ27" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AK27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="10">
         <v>454</v>
       </c>
-      <c r="AM27" s="6">
+      <c r="AM27" s="10">
         <v>28</v>
       </c>
-      <c r="AN27" s="6">
+      <c r="AN27" s="10">
         <v>484</v>
       </c>
-      <c r="AO27" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="AP27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="6">
+      <c r="AO27" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="10">
         <v>809</v>
       </c>
-      <c r="AR27" s="6">
+      <c r="AR27" s="10">
         <v>27</v>
       </c>
-      <c r="AS27" s="6">
+      <c r="AS27" s="10">
         <v>837</v>
       </c>
-      <c r="AT27" s="6">
+      <c r="AT27" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="28" ht="15.65" spans="1:46">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11">
         <f t="shared" ref="B28:AT28" si="3">MIN(B23:B27)</f>
         <v>335</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="11">
         <f t="shared" si="3"/>
         <v>25546</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="11">
         <f t="shared" si="3"/>
         <v>2062</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="11">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="11">
         <f t="shared" si="3"/>
         <v>517</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="11">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="11">
         <f t="shared" si="3"/>
         <v>545</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="11">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="11">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="11">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="11">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="11">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="11">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="Z28" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AA28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AB28" s="11">
         <f t="shared" si="3"/>
         <v>457</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="11">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AD28" s="11">
         <f t="shared" si="3"/>
         <v>494</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AE28" s="11">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AF28" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AG28" s="7">
+      <c r="AG28" s="11">
         <f t="shared" si="3"/>
         <v>431</v>
       </c>
-      <c r="AH28" s="7">
+      <c r="AH28" s="11">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AI28" s="11">
         <f t="shared" si="3"/>
         <v>461</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="11">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="AK28" s="7">
+      <c r="AK28" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AL28" s="7">
+      <c r="AL28" s="11">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="AM28" s="7">
+      <c r="AM28" s="11">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="AN28" s="7">
+      <c r="AN28" s="11">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="AO28" s="7">
+      <c r="AO28" s="11">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="AP28" s="7">
+      <c r="AP28" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="7">
+      <c r="AQ28" s="11">
         <f t="shared" si="3"/>
         <v>706</v>
       </c>
-      <c r="AR28" s="7">
+      <c r="AR28" s="11">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AS28" s="7">
+      <c r="AS28" s="11">
         <f t="shared" si="3"/>
         <v>732</v>
       </c>
-      <c r="AT28" s="7">
+      <c r="AT28" s="11">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
@@ -5711,346 +6075,346 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="16">
         <f>C7</f>
         <v>12604</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="16">
         <f>D7</f>
         <v>1037</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="16">
         <f>E7</f>
         <v>120</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="16">
         <f>F7</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="A34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="17">
         <f>C16</f>
         <v>5676</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="16">
         <f>D16</f>
         <v>527</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="16">
         <f>E16</f>
         <v>89</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="16">
         <f>F16</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="16">
         <f>C22</f>
         <v>17153</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="16">
         <f>D22</f>
         <v>1530</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="16">
         <f>E22</f>
         <v>106</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="16">
         <f>F22</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="16">
         <f>C28</f>
         <v>25546</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="16">
         <f>D28</f>
         <v>2062</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="16">
         <f>E28</f>
         <v>146</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="16">
         <f>F28</f>
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="17">
         <f>H7</f>
         <v>318</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="16">
         <f>M7</f>
         <v>24</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="16">
         <f>R7</f>
         <v>2</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="16">
         <f>W7</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="10">
+      <c r="A40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="16">
         <f>H16</f>
         <v>359</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="16">
         <f>M16</f>
         <v>22</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="16">
         <f>R16</f>
         <v>1</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="16">
         <f>W16</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="16">
         <f>H22</f>
         <v>353</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="16">
         <f>M22</f>
         <v>25</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="16">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="16">
         <f>W22</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="16">
         <f>H28</f>
         <v>517</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="16">
         <f>M28</f>
         <v>50</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="16">
         <f>R28</f>
         <v>9</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="16">
         <f>W28</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="D44" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="18" t="s">
         <v>65</v>
       </c>
+      <c r="D45" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="16">
         <f>AB7</f>
         <v>955</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="16">
         <f>AG7</f>
         <v>535</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="16">
         <f>AL7</f>
         <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="10">
+      <c r="A47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="16">
         <f>AB16</f>
         <v>1046</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="18">
         <f>AG16</f>
         <v>1642</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="16">
         <f>AL16</f>
         <v>7630</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>66</v>
+      <c r="E47" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="16">
         <f>AB22</f>
         <v>535</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="16">
         <f>AG22</f>
         <v>395</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="16">
         <f>AL22</f>
         <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="17">
         <f>AB28</f>
         <v>457</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="16">
         <f>AG28</f>
         <v>431</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="16">
         <f>AL28</f>
         <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
+      <c r="B51" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="16">
         <f>AQ7</f>
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="10">
+      <c r="A53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="17">
         <f>AQ16</f>
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="16">
         <f>AQ22</f>
         <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="16">
         <f>AQ28</f>
         <v>706</v>
       </c>
@@ -6072,62 +6436,67 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
     <col min="2" max="2" width="14.8189655172414" customWidth="true"/>
     <col min="3" max="3" width="10.8103448275862" customWidth="true"/>
+    <col min="12" max="12" width="11.1896551724138"/>
+    <col min="13" max="13" width="9.23275862068965"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.65" spans="2:14">
+    <row r="1" ht="15.65" spans="2:16">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" ht="15.65" spans="1:14">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="15.65" spans="1:16">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -6156,7 +6525,7 @@
       <c r="J2" s="1">
         <v>880</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="1">
@@ -6168,13 +6537,13 @@
       <c r="N2" s="1">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="3" ht="15.65" spans="1:14">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="15.65" spans="2:14">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>2346563</v>
@@ -6200,7 +6569,7 @@
       <c r="J3" s="1">
         <v>891</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -6213,119 +6582,308 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" ht="15.65" spans="1:14">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
+    <row r="4" ht="15.65" spans="2:14">
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3339336</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4034</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>27827.8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>298.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8.79</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" spans="2:14">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1767073</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1122</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>14725.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>158.2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="6" ht="15.65" spans="1:16">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>9330039</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>933</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>77750.3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M6" s="1">
         <v>9718.8</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N6" s="1">
         <v>1.11</v>
       </c>
-    </row>
-    <row r="5" ht="15.65" spans="1:14">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="15.65" spans="2:17">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
         <v>10360689</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>855</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>86340.5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M7" s="1">
         <v>11214.1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N7" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" ht="15.65" spans="2:14">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13152144</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4003</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>109602.1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>14235.4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="9" ht="15.65" spans="2:14">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1046575</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1189</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8721.5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1090.2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" t="s">
-        <v>83</v>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="M119" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +6897,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6348,52 +6906,57 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
     <col min="3" max="3" width="10.0172413793103" customWidth="true"/>
+    <col min="12" max="12" width="10.3362068965517"/>
+    <col min="13" max="13" width="9.23275862068965"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.65" spans="2:14">
+    <row r="1" ht="15.65" spans="2:16">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" ht="15.65" spans="1:14">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="15.65" spans="1:16">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -6422,7 +6985,7 @@
       <c r="J2" s="1">
         <v>941</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="1">
@@ -6434,13 +6997,13 @@
       <c r="N2" s="1">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="3" ht="15.65" spans="1:14">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="15.65" spans="2:14">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>9309310</v>
@@ -6466,7 +7029,7 @@
       <c r="J3" s="1">
         <v>915</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -6479,119 +7042,308 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="4" ht="15.65" spans="1:14">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
+    <row r="4" ht="15.65" spans="2:14">
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11175459</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4174</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>93118.7</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000.3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="5" ht="15.65" spans="2:14">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5219840</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1265</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43492.9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>467.2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" ht="15.65" spans="1:16">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>11376035</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H6" s="1">
         <v>14</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>1051</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>94782.9</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M6" s="1">
         <v>11847.9</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N6" s="1">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="5" ht="15.65" spans="1:14">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="15.65" spans="2:17">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
         <v>13366001</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H7" s="1">
         <v>9</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>923</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>111368.5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M7" s="1">
         <v>14464.9</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N7" s="1">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" ht="15.65" spans="2:14">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14560349</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4092</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>121315</v>
+      </c>
+      <c r="M8" s="2">
+        <v>15756.7</v>
+      </c>
+      <c r="N8" s="2">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="9" ht="15.65" spans="2:14">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1363718</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1303</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11361.7</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1420.2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="N43" t="s">
-        <v>83</v>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="N83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="N119" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
